--- a/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.86665030599788</v>
+        <v>10.86665030599789</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.156087697518565</v>
+        <v>7.156087697518554</v>
       </c>
       <c r="E2">
-        <v>13.72488500087876</v>
+        <v>13.72488500087872</v>
       </c>
       <c r="F2">
-        <v>51.887348540477</v>
+        <v>51.88734854047704</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>16.64018706956428</v>
+        <v>16.6401870695643</v>
       </c>
       <c r="I2">
-        <v>8.84362150543326</v>
+        <v>8.843621505433291</v>
       </c>
       <c r="J2">
-        <v>39.20124506079355</v>
+        <v>39.20124506079356</v>
       </c>
       <c r="K2">
-        <v>25.06213670911691</v>
+        <v>25.06213670911693</v>
       </c>
       <c r="L2">
-        <v>20.93647772424853</v>
+        <v>20.93647772424855</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.1337420011116</v>
+        <v>10.13374200111155</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.614001935115517</v>
+        <v>6.614001935115478</v>
       </c>
       <c r="E3">
-        <v>12.84026841597395</v>
+        <v>12.84026841597393</v>
       </c>
       <c r="F3">
-        <v>48.45315016919001</v>
+        <v>48.45315016919005</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>16.74446213622809</v>
+        <v>16.74446213622811</v>
       </c>
       <c r="I3">
-        <v>8.53389725740297</v>
+        <v>8.533897257402906</v>
       </c>
       <c r="J3">
-        <v>36.25081244933882</v>
+        <v>36.25081244933883</v>
       </c>
       <c r="K3">
-        <v>23.13725157725398</v>
+        <v>23.13725157725405</v>
       </c>
       <c r="L3">
-        <v>19.4007242318784</v>
+        <v>19.40072423187843</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.660527851254031</v>
+        <v>9.660527851254029</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.335446906895716</v>
+        <v>6.335446906895759</v>
       </c>
       <c r="E4">
-        <v>12.28474903898341</v>
+        <v>12.28474903898352</v>
       </c>
       <c r="F4">
-        <v>46.33606893571121</v>
+        <v>46.33606893571127</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16.83194073908695</v>
+        <v>16.83194073908689</v>
       </c>
       <c r="I4">
-        <v>8.343636135268875</v>
+        <v>8.343636135268905</v>
       </c>
       <c r="J4">
         <v>34.36955792877347</v>
       </c>
       <c r="K4">
-        <v>21.91284420533514</v>
+        <v>21.91284420533511</v>
       </c>
       <c r="L4">
-        <v>18.42014728252183</v>
+        <v>18.42014728252181</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.461746050117767</v>
+        <v>9.461746050117808</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.222663224398078</v>
+        <v>6.222663224398051</v>
       </c>
       <c r="E5">
-        <v>12.05491651348021</v>
+        <v>12.05491651348022</v>
       </c>
       <c r="F5">
-        <v>45.47065167225024</v>
+        <v>45.47065167225023</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16.87289153626018</v>
+        <v>16.87289153626014</v>
       </c>
       <c r="I5">
-        <v>8.265945539032483</v>
+        <v>8.265945539032485</v>
       </c>
       <c r="J5">
-        <v>33.58436059302934</v>
+        <v>33.58436059302933</v>
       </c>
       <c r="K5">
-        <v>21.40248896430919</v>
+        <v>21.40248896430918</v>
       </c>
       <c r="L5">
-        <v>18.01060193615345</v>
+        <v>18.01060193615343</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.428376667673616</v>
+        <v>9.428376667673588</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.203977082402339</v>
+        <v>6.203977082402331</v>
       </c>
       <c r="E6">
-        <v>12.01653591864889</v>
+        <v>12.01653591864877</v>
       </c>
       <c r="F6">
-        <v>45.32677886985984</v>
+        <v>45.32677886985982</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16.87999563442118</v>
+        <v>16.87999563442123</v>
       </c>
       <c r="I6">
-        <v>8.253032232042951</v>
+        <v>8.253032232043012</v>
       </c>
       <c r="J6">
-        <v>33.45282957851472</v>
+        <v>33.4528295785146</v>
       </c>
       <c r="K6">
-        <v>21.31703764963624</v>
+        <v>21.3170376496362</v>
       </c>
       <c r="L6">
-        <v>17.94198304226149</v>
+        <v>17.94198304226145</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.657871205740857</v>
+        <v>9.657871205740877</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.333923036360309</v>
+        <v>6.333923036360317</v>
       </c>
       <c r="E7">
-        <v>12.28166381607723</v>
+        <v>12.2816638160772</v>
       </c>
       <c r="F7">
-        <v>46.32440894467552</v>
+        <v>46.32440894467562</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16.83247227899882</v>
+        <v>16.83247227899877</v>
       </c>
       <c r="I7">
-        <v>8.342589165343268</v>
+        <v>8.342589165343272</v>
       </c>
       <c r="J7">
-        <v>34.35904495816247</v>
+        <v>34.35904495816244</v>
       </c>
       <c r="K7">
-        <v>21.90600839125199</v>
+        <v>21.90600839125197</v>
       </c>
       <c r="L7">
         <v>18.41466490866599</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.61868962336296</v>
+        <v>10.61868962336298</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.953308978931813</v>
+        <v>6.953308978931812</v>
       </c>
       <c r="E8">
-        <v>13.42219813739736</v>
+        <v>13.42219813739733</v>
       </c>
       <c r="F8">
-        <v>50.70452242740805</v>
+        <v>50.70452242740809</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16.67089112839512</v>
+        <v>16.67089112839508</v>
       </c>
       <c r="I8">
-        <v>8.736754251871051</v>
+        <v>8.736754251871023</v>
       </c>
       <c r="J8">
-        <v>38.19771552652071</v>
+        <v>38.19771552652075</v>
       </c>
       <c r="K8">
-        <v>24.40680043463635</v>
+        <v>24.40680043463639</v>
       </c>
       <c r="L8">
-        <v>20.41443729877698</v>
+        <v>20.41443729877702</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.32459844508959</v>
+        <v>12.32459844508954</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.401579705370315</v>
+        <v>8.401579705370347</v>
       </c>
       <c r="E9">
-        <v>15.581914895883</v>
+        <v>15.58191489588322</v>
       </c>
       <c r="F9">
-        <v>59.50313400847448</v>
+        <v>59.50313400847479</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16.57151272554561</v>
+        <v>16.57151272554563</v>
       </c>
       <c r="I9">
-        <v>9.517431553078325</v>
+        <v>9.517431553078474</v>
       </c>
       <c r="J9">
-        <v>45.22989517096651</v>
+        <v>45.22989517096669</v>
       </c>
       <c r="K9">
-        <v>29.01241584219138</v>
+        <v>29.01241584219149</v>
       </c>
       <c r="L9">
-        <v>24.06445650195959</v>
+        <v>24.06445650195964</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.47947305703017</v>
+        <v>13.47947305703014</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.464952414116416</v>
+        <v>9.464952414116322</v>
       </c>
       <c r="E10">
-        <v>17.16305185387578</v>
+        <v>17.16305185387574</v>
       </c>
       <c r="F10">
-        <v>66.22749515730213</v>
+        <v>66.22749515730216</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16.68381337281702</v>
+        <v>16.68381337281703</v>
       </c>
       <c r="I10">
         <v>10.11253159461393</v>
       </c>
       <c r="J10">
-        <v>50.19677134987317</v>
+        <v>50.19677134987312</v>
       </c>
       <c r="K10">
-        <v>32.28390971030534</v>
+        <v>32.28390971030537</v>
       </c>
       <c r="L10">
         <v>26.62850687796209</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.98657681665663</v>
+        <v>13.98657681665666</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.958303136867244</v>
+        <v>9.958303136867087</v>
       </c>
       <c r="E11">
-        <v>17.89522541314442</v>
+        <v>17.89522541314432</v>
       </c>
       <c r="F11">
-        <v>69.34175880402402</v>
+        <v>69.34175880402383</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.79043182514952</v>
+        <v>16.79043182514949</v>
       </c>
       <c r="I11">
         <v>10.39386250541399</v>
       </c>
       <c r="J11">
-        <v>52.44547459330663</v>
+        <v>52.44547459330654</v>
       </c>
       <c r="K11">
-        <v>33.76995345214375</v>
+        <v>33.7699534521437</v>
       </c>
       <c r="L11">
         <v>27.78453613922335</v>
@@ -801,10 +801,10 @@
         <v>10.14768030651617</v>
       </c>
       <c r="E12">
-        <v>18.17607925085805</v>
+        <v>18.17607925085808</v>
       </c>
       <c r="F12">
-        <v>70.53504356215628</v>
+        <v>70.53504356215626</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>16.84046547361149</v>
       </c>
       <c r="I12">
-        <v>10.50267063475804</v>
+        <v>10.50267063475806</v>
       </c>
       <c r="J12">
-        <v>53.29931735070559</v>
+        <v>53.29931735070561</v>
       </c>
       <c r="K12">
         <v>34.33499275302844</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.13555923606347</v>
+        <v>14.13555923606346</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.1067576110507</v>
+        <v>10.10675761105068</v>
       </c>
       <c r="E13">
-        <v>18.11539759762515</v>
+        <v>18.11539759762519</v>
       </c>
       <c r="F13">
-        <v>70.27730583046461</v>
+        <v>70.27730583046493</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.82922872719222</v>
+        <v>16.82922872719221</v>
       </c>
       <c r="I13">
-        <v>10.47912060035974</v>
+        <v>10.47912060035975</v>
       </c>
       <c r="J13">
-        <v>53.11524844078015</v>
+        <v>53.11524844078031</v>
       </c>
       <c r="K13">
-        <v>34.21314728983862</v>
+        <v>34.21314728983875</v>
       </c>
       <c r="L13">
-        <v>28.12819856866252</v>
+        <v>28.1281985686626</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.00223126845939</v>
+        <v>14.00223126845932</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.973823868589294</v>
+        <v>9.973823868589317</v>
       </c>
       <c r="E14">
-        <v>17.91824706649334</v>
+        <v>17.91824706649351</v>
       </c>
       <c r="F14">
-        <v>69.43960824038928</v>
+        <v>69.43960824038969</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.79434335712208</v>
+        <v>16.7943433571222</v>
       </c>
       <c r="I14">
-        <v>10.40276330606779</v>
+        <v>10.4027633060679</v>
       </c>
       <c r="J14">
-        <v>52.51564765218741</v>
+        <v>52.51564765218764</v>
       </c>
       <c r="K14">
-        <v>33.81637512168501</v>
+        <v>33.81637512168517</v>
       </c>
       <c r="L14">
-        <v>27.82055683436522</v>
+        <v>27.82055683436531</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.92028015528767</v>
+        <v>13.92028015528764</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.892772826368244</v>
+        <v>9.892772826368349</v>
       </c>
       <c r="E15">
-        <v>17.79801753034812</v>
+        <v>17.79801753034817</v>
       </c>
       <c r="F15">
-        <v>68.92853196451514</v>
+        <v>68.92853196451509</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.77429016997024</v>
+        <v>16.77429016997019</v>
       </c>
       <c r="I15">
-        <v>10.35631554370852</v>
+        <v>10.35631554370849</v>
       </c>
       <c r="J15">
-        <v>52.14881219934468</v>
+        <v>52.14881219934478</v>
       </c>
       <c r="K15">
-        <v>33.57373399375358</v>
+        <v>33.57373399375366</v>
       </c>
       <c r="L15">
-        <v>27.63221814591393</v>
+        <v>27.63221814591401</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.44599300533734</v>
+        <v>13.44599300533732</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.432995731476259</v>
+        <v>9.432995731476396</v>
       </c>
       <c r="E16">
-        <v>17.115597220095</v>
+        <v>17.11559722009516</v>
       </c>
       <c r="F16">
-        <v>66.02555087005003</v>
+        <v>66.02555087004987</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16.67809672169</v>
+        <v>16.67809672169001</v>
       </c>
       <c r="I16">
-        <v>10.0944173040187</v>
+        <v>10.09441730401871</v>
       </c>
       <c r="J16">
-        <v>50.04989815383589</v>
+        <v>50.04989815383587</v>
       </c>
       <c r="K16">
-        <v>32.18695438944935</v>
+        <v>32.18695438944928</v>
       </c>
       <c r="L16">
-        <v>26.55288838478946</v>
+        <v>26.55288838478941</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.15057699085303</v>
+        <v>13.15057699085309</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.154118337959217</v>
+        <v>9.15411833795909</v>
       </c>
       <c r="E17">
-        <v>16.70131576449162</v>
+        <v>16.70131576449159</v>
       </c>
       <c r="F17">
-        <v>64.26248494508842</v>
+        <v>64.26248494508822</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16.63437411280105</v>
+        <v>16.63437411280104</v>
       </c>
       <c r="I17">
-        <v>9.936920571571727</v>
+        <v>9.936920571571768</v>
       </c>
       <c r="J17">
-        <v>48.76189768679186</v>
+        <v>48.76189768679176</v>
       </c>
       <c r="K17">
-        <v>31.33726536212079</v>
+        <v>31.33726536212068</v>
       </c>
       <c r="L17">
-        <v>25.88919619647422</v>
+        <v>25.88919619647418</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.97891746503606</v>
+        <v>12.97891746503604</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.994532163920661</v>
+        <v>8.994532163920608</v>
       </c>
       <c r="E18">
-        <v>16.46411421192053</v>
+        <v>16.46411421192048</v>
       </c>
       <c r="F18">
-        <v>63.25316099273726</v>
+        <v>63.2531609927369</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16.61433266469427</v>
+        <v>16.61433266469429</v>
       </c>
       <c r="I18">
-        <v>9.847274419650345</v>
+        <v>9.847274419650255</v>
       </c>
       <c r="J18">
-        <v>48.01977273140292</v>
+        <v>48.01977273140274</v>
       </c>
       <c r="K18">
-        <v>30.84814574378487</v>
+        <v>30.8481457437847</v>
       </c>
       <c r="L18">
-        <v>25.50634876375677</v>
+        <v>25.50634876375664</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.92048785594103</v>
+        <v>12.92048785594099</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.94060965699434</v>
+        <v>8.940609656994454</v>
       </c>
       <c r="E19">
-        <v>16.38394420514394</v>
+        <v>16.38394420514403</v>
       </c>
       <c r="F19">
-        <v>62.9120857969459</v>
+        <v>62.91208579694577</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16.6083795699778</v>
+        <v>16.60837956997781</v>
       </c>
       <c r="I19">
-        <v>9.817065018735361</v>
+        <v>9.817065018735333</v>
       </c>
       <c r="J19">
-        <v>47.76818051435027</v>
+        <v>47.76818051435026</v>
       </c>
       <c r="K19">
-        <v>30.68240268133804</v>
+        <v>30.68240268133802</v>
       </c>
       <c r="L19">
-        <v>25.37648726681092</v>
+        <v>25.37648726681088</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.18220281199532</v>
+        <v>13.18220281199525</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.18371352348775</v>
+        <v>9.183713523487816</v>
       </c>
       <c r="E20">
-        <v>16.74529405567085</v>
+        <v>16.74529405567077</v>
       </c>
       <c r="F20">
-        <v>64.44963830619191</v>
+        <v>64.44963830619204</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16.63848913366716</v>
+        <v>16.63848913366709</v>
       </c>
       <c r="I20">
-        <v>9.953584344966174</v>
+        <v>9.953584344966082</v>
       </c>
       <c r="J20">
-        <v>48.89911822397278</v>
+        <v>48.89911822397281</v>
       </c>
       <c r="K20">
-        <v>31.427741390579</v>
+        <v>31.4277413905791</v>
       </c>
       <c r="L20">
-        <v>25.95995105631249</v>
+        <v>25.95995105631254</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.04145129774952</v>
+        <v>14.04145129774955</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.01278892621628</v>
+        <v>10.01278892621626</v>
       </c>
       <c r="E21">
-        <v>17.97604025271251</v>
+        <v>17.9760402527124</v>
       </c>
       <c r="F21">
-        <v>69.68522156612107</v>
+        <v>69.68522156612079</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.8043123259781</v>
+        <v>16.80431232597808</v>
       </c>
       <c r="I21">
-        <v>10.42512215240274</v>
+        <v>10.42512215240268</v>
       </c>
       <c r="J21">
-        <v>52.69166493737892</v>
+        <v>52.69166493737878</v>
       </c>
       <c r="K21">
-        <v>33.93282875646316</v>
+        <v>33.93282875646307</v>
       </c>
       <c r="L21">
-        <v>27.91089359439155</v>
+        <v>27.91089359439153</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.59001776844645</v>
+        <v>14.59001776844643</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.57042555869847</v>
+        <v>10.57042555869849</v>
       </c>
       <c r="E22">
-        <v>18.80270803001614</v>
+        <v>18.80270803001626</v>
       </c>
       <c r="F22">
-        <v>73.19312229945902</v>
+        <v>73.1931222994594</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16.97012845798941</v>
+        <v>16.97012845798939</v>
       </c>
       <c r="I22">
         <v>10.74714445084562</v>
       </c>
       <c r="J22">
-        <v>55.18665342991801</v>
+        <v>55.18665342991819</v>
       </c>
       <c r="K22">
-        <v>35.58545036624918</v>
+        <v>35.58545036624937</v>
       </c>
       <c r="L22">
-        <v>29.18896083617131</v>
+        <v>29.18896083617141</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.27085187160301</v>
+        <v>10.2708518716031</v>
       </c>
       <c r="E23">
-        <v>18.35869659540768</v>
+        <v>18.35869659540773</v>
       </c>
       <c r="F23">
-        <v>71.31036789573781</v>
+        <v>71.310367895738</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16.87569403065803</v>
+        <v>16.87569403065805</v>
       </c>
       <c r="I23">
-        <v>10.57367690255575</v>
+        <v>10.57367690255569</v>
       </c>
       <c r="J23">
-        <v>53.85187912968134</v>
+        <v>53.85187912968144</v>
       </c>
       <c r="K23">
-        <v>34.70088209041685</v>
+        <v>34.70088209041693</v>
       </c>
       <c r="L23">
-        <v>28.5057942334822</v>
+        <v>28.50579423348225</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.1679104749451</v>
+        <v>13.16791047494509</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.170331304608768</v>
+        <v>9.170331304608785</v>
       </c>
       <c r="E24">
-        <v>16.72540855694785</v>
+        <v>16.72540855694791</v>
       </c>
       <c r="F24">
-        <v>64.36501334300918</v>
+        <v>64.36501334300902</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16.63661298219212</v>
+        <v>16.63661298219218</v>
       </c>
       <c r="I24">
-        <v>9.946047899248923</v>
+        <v>9.946047899248928</v>
       </c>
       <c r="J24">
-        <v>48.83708618718756</v>
+        <v>48.83708618718746</v>
       </c>
       <c r="K24">
-        <v>31.38683930027209</v>
+        <v>31.38683930027202</v>
       </c>
       <c r="L24">
-        <v>25.92796690270312</v>
+        <v>25.92796690270305</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.88126198172613</v>
+        <v>11.88126198172605</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.012525087088793</v>
+        <v>8.012525087088838</v>
       </c>
       <c r="E25">
-        <v>15.00235284660985</v>
+        <v>15.00235284660995</v>
       </c>
       <c r="F25">
-        <v>57.04578759930822</v>
+        <v>57.04578759930818</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16.57024825357</v>
+        <v>16.57024825357009</v>
       </c>
       <c r="I25">
-        <v>9.303992109654345</v>
+        <v>9.303992109654443</v>
       </c>
       <c r="J25">
-        <v>43.37142103510659</v>
+        <v>43.3714210351065</v>
       </c>
       <c r="K25">
-        <v>27.79222011097954</v>
+        <v>27.79222011097948</v>
       </c>
       <c r="L25">
-        <v>23.10181857016168</v>
+        <v>23.1018185701616</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.86665030599789</v>
+        <v>10.86665030599788</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.156087697518554</v>
+        <v>7.156087697518565</v>
       </c>
       <c r="E2">
-        <v>13.72488500087872</v>
+        <v>13.72488500087876</v>
       </c>
       <c r="F2">
-        <v>51.88734854047704</v>
+        <v>51.887348540477</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>16.6401870695643</v>
+        <v>16.64018706956428</v>
       </c>
       <c r="I2">
-        <v>8.843621505433291</v>
+        <v>8.84362150543326</v>
       </c>
       <c r="J2">
-        <v>39.20124506079356</v>
+        <v>39.20124506079355</v>
       </c>
       <c r="K2">
-        <v>25.06213670911693</v>
+        <v>25.06213670911691</v>
       </c>
       <c r="L2">
-        <v>20.93647772424855</v>
+        <v>20.93647772424853</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.13374200111155</v>
+        <v>10.1337420011116</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.614001935115478</v>
+        <v>6.614001935115517</v>
       </c>
       <c r="E3">
-        <v>12.84026841597393</v>
+        <v>12.84026841597395</v>
       </c>
       <c r="F3">
-        <v>48.45315016919005</v>
+        <v>48.45315016919001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>16.74446213622811</v>
+        <v>16.74446213622809</v>
       </c>
       <c r="I3">
-        <v>8.533897257402906</v>
+        <v>8.53389725740297</v>
       </c>
       <c r="J3">
-        <v>36.25081244933883</v>
+        <v>36.25081244933882</v>
       </c>
       <c r="K3">
-        <v>23.13725157725405</v>
+        <v>23.13725157725398</v>
       </c>
       <c r="L3">
-        <v>19.40072423187843</v>
+        <v>19.4007242318784</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.660527851254029</v>
+        <v>9.660527851254031</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.335446906895759</v>
+        <v>6.335446906895716</v>
       </c>
       <c r="E4">
-        <v>12.28474903898352</v>
+        <v>12.28474903898341</v>
       </c>
       <c r="F4">
-        <v>46.33606893571127</v>
+        <v>46.33606893571121</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16.83194073908689</v>
+        <v>16.83194073908695</v>
       </c>
       <c r="I4">
-        <v>8.343636135268905</v>
+        <v>8.343636135268875</v>
       </c>
       <c r="J4">
         <v>34.36955792877347</v>
       </c>
       <c r="K4">
-        <v>21.91284420533511</v>
+        <v>21.91284420533514</v>
       </c>
       <c r="L4">
-        <v>18.42014728252181</v>
+        <v>18.42014728252183</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.461746050117808</v>
+        <v>9.461746050117767</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.222663224398051</v>
+        <v>6.222663224398078</v>
       </c>
       <c r="E5">
-        <v>12.05491651348022</v>
+        <v>12.05491651348021</v>
       </c>
       <c r="F5">
-        <v>45.47065167225023</v>
+        <v>45.47065167225024</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16.87289153626014</v>
+        <v>16.87289153626018</v>
       </c>
       <c r="I5">
-        <v>8.265945539032485</v>
+        <v>8.265945539032483</v>
       </c>
       <c r="J5">
-        <v>33.58436059302933</v>
+        <v>33.58436059302934</v>
       </c>
       <c r="K5">
-        <v>21.40248896430918</v>
+        <v>21.40248896430919</v>
       </c>
       <c r="L5">
-        <v>18.01060193615343</v>
+        <v>18.01060193615345</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.428376667673588</v>
+        <v>9.428376667673616</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.203977082402331</v>
+        <v>6.203977082402339</v>
       </c>
       <c r="E6">
-        <v>12.01653591864877</v>
+        <v>12.01653591864889</v>
       </c>
       <c r="F6">
-        <v>45.32677886985982</v>
+        <v>45.32677886985984</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16.87999563442123</v>
+        <v>16.87999563442118</v>
       </c>
       <c r="I6">
-        <v>8.253032232043012</v>
+        <v>8.253032232042951</v>
       </c>
       <c r="J6">
-        <v>33.4528295785146</v>
+        <v>33.45282957851472</v>
       </c>
       <c r="K6">
-        <v>21.3170376496362</v>
+        <v>21.31703764963624</v>
       </c>
       <c r="L6">
-        <v>17.94198304226145</v>
+        <v>17.94198304226149</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.657871205740877</v>
+        <v>9.657871205740857</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.333923036360317</v>
+        <v>6.333923036360309</v>
       </c>
       <c r="E7">
-        <v>12.2816638160772</v>
+        <v>12.28166381607723</v>
       </c>
       <c r="F7">
-        <v>46.32440894467562</v>
+        <v>46.32440894467552</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16.83247227899877</v>
+        <v>16.83247227899882</v>
       </c>
       <c r="I7">
-        <v>8.342589165343272</v>
+        <v>8.342589165343268</v>
       </c>
       <c r="J7">
-        <v>34.35904495816244</v>
+        <v>34.35904495816247</v>
       </c>
       <c r="K7">
-        <v>21.90600839125197</v>
+        <v>21.90600839125199</v>
       </c>
       <c r="L7">
         <v>18.41466490866599</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.61868962336298</v>
+        <v>10.61868962336296</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.953308978931812</v>
+        <v>6.953308978931813</v>
       </c>
       <c r="E8">
-        <v>13.42219813739733</v>
+        <v>13.42219813739736</v>
       </c>
       <c r="F8">
-        <v>50.70452242740809</v>
+        <v>50.70452242740805</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16.67089112839508</v>
+        <v>16.67089112839512</v>
       </c>
       <c r="I8">
-        <v>8.736754251871023</v>
+        <v>8.736754251871051</v>
       </c>
       <c r="J8">
-        <v>38.19771552652075</v>
+        <v>38.19771552652071</v>
       </c>
       <c r="K8">
-        <v>24.40680043463639</v>
+        <v>24.40680043463635</v>
       </c>
       <c r="L8">
-        <v>20.41443729877702</v>
+        <v>20.41443729877698</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.32459844508954</v>
+        <v>12.32459844508959</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.401579705370347</v>
+        <v>8.401579705370315</v>
       </c>
       <c r="E9">
-        <v>15.58191489588322</v>
+        <v>15.581914895883</v>
       </c>
       <c r="F9">
-        <v>59.50313400847479</v>
+        <v>59.50313400847448</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16.57151272554563</v>
+        <v>16.57151272554561</v>
       </c>
       <c r="I9">
-        <v>9.517431553078474</v>
+        <v>9.517431553078325</v>
       </c>
       <c r="J9">
-        <v>45.22989517096669</v>
+        <v>45.22989517096651</v>
       </c>
       <c r="K9">
-        <v>29.01241584219149</v>
+        <v>29.01241584219138</v>
       </c>
       <c r="L9">
-        <v>24.06445650195964</v>
+        <v>24.06445650195959</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.47947305703014</v>
+        <v>13.47947305703017</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.464952414116322</v>
+        <v>9.464952414116416</v>
       </c>
       <c r="E10">
-        <v>17.16305185387574</v>
+        <v>17.16305185387578</v>
       </c>
       <c r="F10">
-        <v>66.22749515730216</v>
+        <v>66.22749515730213</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16.68381337281703</v>
+        <v>16.68381337281702</v>
       </c>
       <c r="I10">
         <v>10.11253159461393</v>
       </c>
       <c r="J10">
-        <v>50.19677134987312</v>
+        <v>50.19677134987317</v>
       </c>
       <c r="K10">
-        <v>32.28390971030537</v>
+        <v>32.28390971030534</v>
       </c>
       <c r="L10">
         <v>26.62850687796209</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.98657681665666</v>
+        <v>13.98657681665663</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.958303136867087</v>
+        <v>9.958303136867244</v>
       </c>
       <c r="E11">
-        <v>17.89522541314432</v>
+        <v>17.89522541314442</v>
       </c>
       <c r="F11">
-        <v>69.34175880402383</v>
+        <v>69.34175880402402</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.79043182514949</v>
+        <v>16.79043182514952</v>
       </c>
       <c r="I11">
         <v>10.39386250541399</v>
       </c>
       <c r="J11">
-        <v>52.44547459330654</v>
+        <v>52.44547459330663</v>
       </c>
       <c r="K11">
-        <v>33.7699534521437</v>
+        <v>33.76995345214375</v>
       </c>
       <c r="L11">
         <v>27.78453613922335</v>
@@ -801,10 +801,10 @@
         <v>10.14768030651617</v>
       </c>
       <c r="E12">
-        <v>18.17607925085808</v>
+        <v>18.17607925085805</v>
       </c>
       <c r="F12">
-        <v>70.53504356215626</v>
+        <v>70.53504356215628</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>16.84046547361149</v>
       </c>
       <c r="I12">
-        <v>10.50267063475806</v>
+        <v>10.50267063475804</v>
       </c>
       <c r="J12">
-        <v>53.29931735070561</v>
+        <v>53.29931735070559</v>
       </c>
       <c r="K12">
         <v>34.33499275302844</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.13555923606346</v>
+        <v>14.13555923606347</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.10675761105068</v>
+        <v>10.1067576110507</v>
       </c>
       <c r="E13">
-        <v>18.11539759762519</v>
+        <v>18.11539759762515</v>
       </c>
       <c r="F13">
-        <v>70.27730583046493</v>
+        <v>70.27730583046461</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.82922872719221</v>
+        <v>16.82922872719222</v>
       </c>
       <c r="I13">
-        <v>10.47912060035975</v>
+        <v>10.47912060035974</v>
       </c>
       <c r="J13">
-        <v>53.11524844078031</v>
+        <v>53.11524844078015</v>
       </c>
       <c r="K13">
-        <v>34.21314728983875</v>
+        <v>34.21314728983862</v>
       </c>
       <c r="L13">
-        <v>28.1281985686626</v>
+        <v>28.12819856866252</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.00223126845932</v>
+        <v>14.00223126845939</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.973823868589317</v>
+        <v>9.973823868589294</v>
       </c>
       <c r="E14">
-        <v>17.91824706649351</v>
+        <v>17.91824706649334</v>
       </c>
       <c r="F14">
-        <v>69.43960824038969</v>
+        <v>69.43960824038928</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.7943433571222</v>
+        <v>16.79434335712208</v>
       </c>
       <c r="I14">
-        <v>10.4027633060679</v>
+        <v>10.40276330606779</v>
       </c>
       <c r="J14">
-        <v>52.51564765218764</v>
+        <v>52.51564765218741</v>
       </c>
       <c r="K14">
-        <v>33.81637512168517</v>
+        <v>33.81637512168501</v>
       </c>
       <c r="L14">
-        <v>27.82055683436531</v>
+        <v>27.82055683436522</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.92028015528764</v>
+        <v>13.92028015528767</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.892772826368349</v>
+        <v>9.892772826368244</v>
       </c>
       <c r="E15">
-        <v>17.79801753034817</v>
+        <v>17.79801753034812</v>
       </c>
       <c r="F15">
-        <v>68.92853196451509</v>
+        <v>68.92853196451514</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.77429016997019</v>
+        <v>16.77429016997024</v>
       </c>
       <c r="I15">
-        <v>10.35631554370849</v>
+        <v>10.35631554370852</v>
       </c>
       <c r="J15">
-        <v>52.14881219934478</v>
+        <v>52.14881219934468</v>
       </c>
       <c r="K15">
-        <v>33.57373399375366</v>
+        <v>33.57373399375358</v>
       </c>
       <c r="L15">
-        <v>27.63221814591401</v>
+        <v>27.63221814591393</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.44599300533732</v>
+        <v>13.44599300533734</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.432995731476396</v>
+        <v>9.432995731476259</v>
       </c>
       <c r="E16">
-        <v>17.11559722009516</v>
+        <v>17.115597220095</v>
       </c>
       <c r="F16">
-        <v>66.02555087004987</v>
+        <v>66.02555087005003</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16.67809672169001</v>
+        <v>16.67809672169</v>
       </c>
       <c r="I16">
-        <v>10.09441730401871</v>
+        <v>10.0944173040187</v>
       </c>
       <c r="J16">
-        <v>50.04989815383587</v>
+        <v>50.04989815383589</v>
       </c>
       <c r="K16">
-        <v>32.18695438944928</v>
+        <v>32.18695438944935</v>
       </c>
       <c r="L16">
-        <v>26.55288838478941</v>
+        <v>26.55288838478946</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.15057699085309</v>
+        <v>13.15057699085303</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.15411833795909</v>
+        <v>9.154118337959217</v>
       </c>
       <c r="E17">
-        <v>16.70131576449159</v>
+        <v>16.70131576449162</v>
       </c>
       <c r="F17">
-        <v>64.26248494508822</v>
+        <v>64.26248494508842</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16.63437411280104</v>
+        <v>16.63437411280105</v>
       </c>
       <c r="I17">
-        <v>9.936920571571768</v>
+        <v>9.936920571571727</v>
       </c>
       <c r="J17">
-        <v>48.76189768679176</v>
+        <v>48.76189768679186</v>
       </c>
       <c r="K17">
-        <v>31.33726536212068</v>
+        <v>31.33726536212079</v>
       </c>
       <c r="L17">
-        <v>25.88919619647418</v>
+        <v>25.88919619647422</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.97891746503604</v>
+        <v>12.97891746503606</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.994532163920608</v>
+        <v>8.994532163920661</v>
       </c>
       <c r="E18">
-        <v>16.46411421192048</v>
+        <v>16.46411421192053</v>
       </c>
       <c r="F18">
-        <v>63.2531609927369</v>
+        <v>63.25316099273726</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16.61433266469429</v>
+        <v>16.61433266469427</v>
       </c>
       <c r="I18">
-        <v>9.847274419650255</v>
+        <v>9.847274419650345</v>
       </c>
       <c r="J18">
-        <v>48.01977273140274</v>
+        <v>48.01977273140292</v>
       </c>
       <c r="K18">
-        <v>30.8481457437847</v>
+        <v>30.84814574378487</v>
       </c>
       <c r="L18">
-        <v>25.50634876375664</v>
+        <v>25.50634876375677</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.92048785594099</v>
+        <v>12.92048785594103</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.940609656994454</v>
+        <v>8.94060965699434</v>
       </c>
       <c r="E19">
-        <v>16.38394420514403</v>
+        <v>16.38394420514394</v>
       </c>
       <c r="F19">
-        <v>62.91208579694577</v>
+        <v>62.9120857969459</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16.60837956997781</v>
+        <v>16.6083795699778</v>
       </c>
       <c r="I19">
-        <v>9.817065018735333</v>
+        <v>9.817065018735361</v>
       </c>
       <c r="J19">
-        <v>47.76818051435026</v>
+        <v>47.76818051435027</v>
       </c>
       <c r="K19">
-        <v>30.68240268133802</v>
+        <v>30.68240268133804</v>
       </c>
       <c r="L19">
-        <v>25.37648726681088</v>
+        <v>25.37648726681092</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.18220281199525</v>
+        <v>13.18220281199532</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.183713523487816</v>
+        <v>9.18371352348775</v>
       </c>
       <c r="E20">
-        <v>16.74529405567077</v>
+        <v>16.74529405567085</v>
       </c>
       <c r="F20">
-        <v>64.44963830619204</v>
+        <v>64.44963830619191</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16.63848913366709</v>
+        <v>16.63848913366716</v>
       </c>
       <c r="I20">
-        <v>9.953584344966082</v>
+        <v>9.953584344966174</v>
       </c>
       <c r="J20">
-        <v>48.89911822397281</v>
+        <v>48.89911822397278</v>
       </c>
       <c r="K20">
-        <v>31.4277413905791</v>
+        <v>31.427741390579</v>
       </c>
       <c r="L20">
-        <v>25.95995105631254</v>
+        <v>25.95995105631249</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.04145129774955</v>
+        <v>14.04145129774952</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.01278892621626</v>
+        <v>10.01278892621628</v>
       </c>
       <c r="E21">
-        <v>17.9760402527124</v>
+        <v>17.97604025271251</v>
       </c>
       <c r="F21">
-        <v>69.68522156612079</v>
+        <v>69.68522156612107</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.80431232597808</v>
+        <v>16.8043123259781</v>
       </c>
       <c r="I21">
-        <v>10.42512215240268</v>
+        <v>10.42512215240274</v>
       </c>
       <c r="J21">
-        <v>52.69166493737878</v>
+        <v>52.69166493737892</v>
       </c>
       <c r="K21">
-        <v>33.93282875646307</v>
+        <v>33.93282875646316</v>
       </c>
       <c r="L21">
-        <v>27.91089359439153</v>
+        <v>27.91089359439155</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.59001776844643</v>
+        <v>14.59001776844645</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.57042555869849</v>
+        <v>10.57042555869847</v>
       </c>
       <c r="E22">
-        <v>18.80270803001626</v>
+        <v>18.80270803001614</v>
       </c>
       <c r="F22">
-        <v>73.1931222994594</v>
+        <v>73.19312229945902</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16.97012845798939</v>
+        <v>16.97012845798941</v>
       </c>
       <c r="I22">
         <v>10.74714445084562</v>
       </c>
       <c r="J22">
-        <v>55.18665342991819</v>
+        <v>55.18665342991801</v>
       </c>
       <c r="K22">
-        <v>35.58545036624937</v>
+        <v>35.58545036624918</v>
       </c>
       <c r="L22">
-        <v>29.18896083617141</v>
+        <v>29.18896083617131</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.2708518716031</v>
+        <v>10.27085187160301</v>
       </c>
       <c r="E23">
-        <v>18.35869659540773</v>
+        <v>18.35869659540768</v>
       </c>
       <c r="F23">
-        <v>71.310367895738</v>
+        <v>71.31036789573781</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16.87569403065805</v>
+        <v>16.87569403065803</v>
       </c>
       <c r="I23">
-        <v>10.57367690255569</v>
+        <v>10.57367690255575</v>
       </c>
       <c r="J23">
-        <v>53.85187912968144</v>
+        <v>53.85187912968134</v>
       </c>
       <c r="K23">
-        <v>34.70088209041693</v>
+        <v>34.70088209041685</v>
       </c>
       <c r="L23">
-        <v>28.50579423348225</v>
+        <v>28.5057942334822</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.16791047494509</v>
+        <v>13.1679104749451</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.170331304608785</v>
+        <v>9.170331304608768</v>
       </c>
       <c r="E24">
-        <v>16.72540855694791</v>
+        <v>16.72540855694785</v>
       </c>
       <c r="F24">
-        <v>64.36501334300902</v>
+        <v>64.36501334300918</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16.63661298219218</v>
+        <v>16.63661298219212</v>
       </c>
       <c r="I24">
-        <v>9.946047899248928</v>
+        <v>9.946047899248923</v>
       </c>
       <c r="J24">
-        <v>48.83708618718746</v>
+        <v>48.83708618718756</v>
       </c>
       <c r="K24">
-        <v>31.38683930027202</v>
+        <v>31.38683930027209</v>
       </c>
       <c r="L24">
-        <v>25.92796690270305</v>
+        <v>25.92796690270312</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.88126198172605</v>
+        <v>11.88126198172613</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.012525087088838</v>
+        <v>8.012525087088793</v>
       </c>
       <c r="E25">
-        <v>15.00235284660995</v>
+        <v>15.00235284660985</v>
       </c>
       <c r="F25">
-        <v>57.04578759930818</v>
+        <v>57.04578759930822</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16.57024825357009</v>
+        <v>16.57024825357</v>
       </c>
       <c r="I25">
-        <v>9.303992109654443</v>
+        <v>9.303992109654345</v>
       </c>
       <c r="J25">
-        <v>43.3714210351065</v>
+        <v>43.37142103510659</v>
       </c>
       <c r="K25">
-        <v>27.79222011097948</v>
+        <v>27.79222011097954</v>
       </c>
       <c r="L25">
-        <v>23.1018185701616</v>
+        <v>23.10181857016168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.86665030599788</v>
+        <v>10.84066151321508</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.156087697518565</v>
+        <v>7.101132181347793</v>
       </c>
       <c r="E2">
-        <v>13.72488500087876</v>
+        <v>13.46262687654194</v>
       </c>
       <c r="F2">
-        <v>51.887348540477</v>
+        <v>51.89454439086638</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.001256647237031</v>
       </c>
       <c r="H2">
-        <v>16.64018706956428</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.84362150543326</v>
+        <v>16.79831494990914</v>
       </c>
       <c r="J2">
-        <v>39.20124506079355</v>
+        <v>8.698571166994807</v>
       </c>
       <c r="K2">
-        <v>25.06213670911691</v>
+        <v>38.92679396457556</v>
       </c>
       <c r="L2">
-        <v>20.93647772424853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>24.9127720951432</v>
+      </c>
+      <c r="M2">
+        <v>20.81113144033288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.1337420011116</v>
+        <v>10.10859402686351</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.614001935115517</v>
+        <v>6.662883777475338</v>
       </c>
       <c r="E3">
-        <v>12.84026841597395</v>
+        <v>12.57737152096892</v>
       </c>
       <c r="F3">
-        <v>48.45315016919001</v>
+        <v>48.53203661117443</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.022493620182845</v>
       </c>
       <c r="H3">
-        <v>16.74446213622809</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.53389725740297</v>
+        <v>16.91192818363161</v>
       </c>
       <c r="J3">
-        <v>36.25081244933882</v>
+        <v>8.387790832873716</v>
       </c>
       <c r="K3">
-        <v>23.13725157725398</v>
+        <v>35.99234791351311</v>
       </c>
       <c r="L3">
-        <v>19.4007242318784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>23.00028905462664</v>
+      </c>
+      <c r="M3">
+        <v>19.28076739470183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.660527851254031</v>
+        <v>9.6358627499246</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.335446906895716</v>
+        <v>6.398378426506057</v>
       </c>
       <c r="E4">
-        <v>12.28474903898341</v>
+        <v>12.02066058949716</v>
       </c>
       <c r="F4">
-        <v>46.33606893571121</v>
+        <v>46.46280170718083</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.035569313299877</v>
       </c>
       <c r="H4">
-        <v>16.83194073908695</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>8.343636135268875</v>
+        <v>17.00471039463584</v>
       </c>
       <c r="J4">
-        <v>34.36955792877347</v>
+        <v>8.196662785009481</v>
       </c>
       <c r="K4">
-        <v>21.91284420533514</v>
+        <v>34.12092267942442</v>
       </c>
       <c r="L4">
-        <v>18.42014728252183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>21.78371942757095</v>
+      </c>
+      <c r="M4">
+        <v>18.30333144424306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.461746050117767</v>
+        <v>9.437270103613175</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.222663224398078</v>
+        <v>6.291619144442357</v>
       </c>
       <c r="E5">
-        <v>12.05491651348021</v>
+        <v>11.79014230883924</v>
       </c>
       <c r="F5">
-        <v>45.47065167225024</v>
+        <v>45.61790531242835</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.040921102264988</v>
       </c>
       <c r="H5">
-        <v>16.87289153626018</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.265945539032483</v>
+        <v>17.0477316720443</v>
       </c>
       <c r="J5">
-        <v>33.58436059302934</v>
+        <v>8.118569537426417</v>
       </c>
       <c r="K5">
-        <v>21.40248896430919</v>
+        <v>33.33975966838533</v>
       </c>
       <c r="L5">
-        <v>18.01060193615345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>21.27663617020896</v>
+      </c>
+      <c r="M5">
+        <v>17.89503089555858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.428376667673616</v>
+        <v>9.403931683254987</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.203977082402339</v>
+        <v>6.273951473731657</v>
       </c>
       <c r="E6">
-        <v>12.01653591864889</v>
+        <v>11.75163571284611</v>
       </c>
       <c r="F6">
-        <v>45.32677886985984</v>
+        <v>45.477503284042</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.041811549189351</v>
       </c>
       <c r="H6">
-        <v>16.87999563442118</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.253032232042951</v>
+        <v>17.05517456368776</v>
       </c>
       <c r="J6">
-        <v>33.45282957851472</v>
+        <v>8.10558653759167</v>
       </c>
       <c r="K6">
-        <v>21.31703764963624</v>
+        <v>33.20890096011321</v>
       </c>
       <c r="L6">
-        <v>17.94198304226149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>21.19173349871205</v>
+      </c>
+      <c r="M6">
+        <v>17.82661673120182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.657871205740857</v>
+        <v>9.633208685605565</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.333923036360309</v>
+        <v>6.396934588700907</v>
       </c>
       <c r="E7">
-        <v>12.28166381607723</v>
+        <v>12.01756693023938</v>
       </c>
       <c r="F7">
-        <v>46.32440894467552</v>
+        <v>46.45141425512944</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.035641377601878</v>
       </c>
       <c r="H7">
-        <v>16.83247227899882</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>8.342589165343268</v>
+        <v>17.00527020365925</v>
       </c>
       <c r="J7">
-        <v>34.35904495816247</v>
+        <v>8.195610577875417</v>
       </c>
       <c r="K7">
-        <v>21.90600839125199</v>
+        <v>34.11046396976074</v>
       </c>
       <c r="L7">
-        <v>18.41466490866599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>21.77692739653165</v>
+      </c>
+      <c r="M7">
+        <v>18.29786599319096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.61868962336296</v>
+        <v>10.59299830671202</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.953308978931813</v>
+        <v>6.94897977125444</v>
       </c>
       <c r="E8">
-        <v>13.42219813739736</v>
+        <v>13.1598873237338</v>
       </c>
       <c r="F8">
-        <v>50.70452242740805</v>
+        <v>50.735683296838</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.008580969102758</v>
       </c>
       <c r="H8">
-        <v>16.67089112839512</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>8.736754251871051</v>
+        <v>16.8323390888762</v>
       </c>
       <c r="J8">
-        <v>38.19771552652071</v>
+        <v>8.591388742758724</v>
       </c>
       <c r="K8">
-        <v>24.40680043463635</v>
+        <v>37.92879052881676</v>
       </c>
       <c r="L8">
-        <v>20.41443729877698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>24.26167964528103</v>
+      </c>
+      <c r="M8">
+        <v>20.29098936135865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.32459844508959</v>
+        <v>12.29655723416937</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.401579705370315</v>
+        <v>8.295068947683179</v>
       </c>
       <c r="E9">
-        <v>15.581914895883</v>
+        <v>15.31648926462058</v>
       </c>
       <c r="F9">
-        <v>59.50313400847448</v>
+        <v>59.29483223866933</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.955012876663156</v>
       </c>
       <c r="H9">
-        <v>16.57151272554561</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>9.517431553078325</v>
+        <v>16.70639830721487</v>
       </c>
       <c r="J9">
-        <v>45.22989517096651</v>
+        <v>9.373182963562195</v>
       </c>
       <c r="K9">
-        <v>29.01241584219138</v>
+        <v>44.91971926929116</v>
       </c>
       <c r="L9">
-        <v>24.06445650195959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>28.83646558873608</v>
+      </c>
+      <c r="M9">
+        <v>23.92613342003273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.47947305703017</v>
+        <v>13.44933836363921</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.464952414116416</v>
+        <v>9.342643666711586</v>
       </c>
       <c r="E10">
-        <v>17.16305185387578</v>
+        <v>16.89039661936765</v>
       </c>
       <c r="F10">
-        <v>66.22749515730213</v>
+        <v>65.91953560783453</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.91392841338998</v>
       </c>
       <c r="H10">
-        <v>16.68381337281702</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>10.11253159461393</v>
+        <v>16.7950707820749</v>
       </c>
       <c r="J10">
-        <v>50.19677134987317</v>
+        <v>9.967247249507514</v>
       </c>
       <c r="K10">
-        <v>32.28390971030534</v>
+        <v>49.8525809213026</v>
       </c>
       <c r="L10">
-        <v>26.62850687796209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>32.08360680555758</v>
+      </c>
+      <c r="M10">
+        <v>26.47701886177829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.98657681665663</v>
+        <v>13.95534125091066</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.958303136867244</v>
+        <v>9.828542200028837</v>
       </c>
       <c r="E11">
-        <v>17.89522541314442</v>
+        <v>17.61776908809436</v>
       </c>
       <c r="F11">
-        <v>69.34175880402402</v>
+        <v>68.98814123281984</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.89440789917909</v>
       </c>
       <c r="H11">
-        <v>16.79043182514952</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>10.39386250541399</v>
+        <v>16.88959920288958</v>
       </c>
       <c r="J11">
-        <v>52.44547459330663</v>
+        <v>10.2474781207377</v>
       </c>
       <c r="K11">
-        <v>33.76995345214375</v>
+        <v>52.08394014022137</v>
       </c>
       <c r="L11">
-        <v>27.78453613922335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>33.55747422650331</v>
+      </c>
+      <c r="M11">
+        <v>27.62612889678342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.17633207019717</v>
+        <v>14.14464843306943</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.14768030651617</v>
+        <v>10.01500882983761</v>
       </c>
       <c r="E12">
-        <v>18.17607925085805</v>
+        <v>17.8965211161897</v>
       </c>
       <c r="F12">
-        <v>70.53504356215628</v>
+        <v>70.16382100855549</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.886842277032595</v>
       </c>
       <c r="H12">
-        <v>16.84046547361149</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>10.50267063475804</v>
+        <v>16.93480821856411</v>
       </c>
       <c r="J12">
-        <v>53.29931735070559</v>
+        <v>10.35574801598239</v>
       </c>
       <c r="K12">
-        <v>34.33499275302844</v>
+        <v>52.93080041415591</v>
       </c>
       <c r="L12">
-        <v>28.22258893744545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>34.11764725079842</v>
+      </c>
+      <c r="M12">
+        <v>28.06136532496241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.13555923606347</v>
+        <v>14.10397369928726</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.1067576110507</v>
+        <v>9.974717958559234</v>
       </c>
       <c r="E13">
-        <v>18.11539759762515</v>
+        <v>17.83630620341255</v>
       </c>
       <c r="F13">
-        <v>70.27730583046461</v>
+        <v>69.90989438962124</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.888480457222238</v>
       </c>
       <c r="H13">
-        <v>16.82922872719222</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>10.47912060035974</v>
+        <v>16.9246225852112</v>
       </c>
       <c r="J13">
-        <v>53.11524844078015</v>
+        <v>10.33231998316131</v>
       </c>
       <c r="K13">
-        <v>34.21314728983862</v>
+        <v>52.74825685960192</v>
       </c>
       <c r="L13">
-        <v>28.12819856866252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>33.99686325125605</v>
+      </c>
+      <c r="M13">
+        <v>27.96759158043999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.00223126845939</v>
+        <v>13.97095953941071</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.973823868589294</v>
+        <v>9.843825623379576</v>
       </c>
       <c r="E14">
-        <v>17.91824706649334</v>
+        <v>17.64062402178596</v>
       </c>
       <c r="F14">
-        <v>69.43960824038928</v>
+        <v>69.08455056542545</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.893789327482006</v>
       </c>
       <c r="H14">
-        <v>16.79434335712208</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>10.40276330606779</v>
+        <v>16.89311912929505</v>
       </c>
       <c r="J14">
-        <v>52.51564765218741</v>
+        <v>10.25633731468344</v>
       </c>
       <c r="K14">
-        <v>33.81637512168501</v>
+        <v>52.15354814818489</v>
       </c>
       <c r="L14">
-        <v>27.82055683436522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>33.60350138806383</v>
+      </c>
+      <c r="M14">
+        <v>27.66192229062416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.92028015528767</v>
+        <v>13.88919620275099</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.892772826368244</v>
+        <v>9.764011600351651</v>
       </c>
       <c r="E15">
-        <v>17.79801753034812</v>
+        <v>17.52125436015418</v>
       </c>
       <c r="F15">
-        <v>68.92853196451514</v>
+        <v>68.58099037567811</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.897016631895458</v>
       </c>
       <c r="H15">
-        <v>16.77429016997024</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>10.35631554370852</v>
+        <v>16.87510343494177</v>
       </c>
       <c r="J15">
-        <v>52.14881219934468</v>
+        <v>10.21010198419724</v>
       </c>
       <c r="K15">
-        <v>33.57373399375358</v>
+        <v>51.78964970638164</v>
       </c>
       <c r="L15">
-        <v>27.63221814591393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>33.36291223994358</v>
+      </c>
+      <c r="M15">
+        <v>27.47476384718149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.44599300533734</v>
+        <v>13.41592653257787</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.432995731476259</v>
+        <v>9.311164813555916</v>
       </c>
       <c r="E16">
-        <v>17.115597220095</v>
+        <v>16.84322041181013</v>
       </c>
       <c r="F16">
-        <v>66.02555087005003</v>
+        <v>65.720548062303</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.915183171157989</v>
       </c>
       <c r="H16">
-        <v>16.67809672169</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>10.0944173040187</v>
+        <v>16.79011310862481</v>
       </c>
       <c r="J16">
-        <v>50.04989815383589</v>
+        <v>9.949189850785466</v>
       </c>
       <c r="K16">
-        <v>32.18695438944935</v>
+        <v>49.70679258801065</v>
       </c>
       <c r="L16">
-        <v>26.55288838478946</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>31.98741777390472</v>
+      </c>
+      <c r="M16">
+        <v>26.4018291540919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.15057699085303</v>
+        <v>13.12109104695263</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.154118337959217</v>
+        <v>9.036441070793755</v>
       </c>
       <c r="E17">
-        <v>16.70131576449162</v>
+        <v>16.43120528182006</v>
       </c>
       <c r="F17">
-        <v>64.26248494508842</v>
+        <v>63.98333502385587</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.926081627821962</v>
       </c>
       <c r="H17">
-        <v>16.63437411280105</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>9.936920571571727</v>
+        <v>16.75288723072274</v>
       </c>
       <c r="J17">
-        <v>48.76189768679186</v>
+        <v>9.792119019957198</v>
       </c>
       <c r="K17">
-        <v>31.33726536212079</v>
+        <v>48.4280791193484</v>
       </c>
       <c r="L17">
-        <v>25.88919619647422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>31.14431379937732</v>
+      </c>
+      <c r="M17">
+        <v>25.74178597502911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.97891746503606</v>
+        <v>12.94975223673263</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.994532163920661</v>
+        <v>8.879222839535574</v>
       </c>
       <c r="E18">
-        <v>16.46411421192053</v>
+        <v>16.19517034586532</v>
       </c>
       <c r="F18">
-        <v>63.25316099273726</v>
+        <v>62.98887107397846</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.932275976870141</v>
       </c>
       <c r="H18">
-        <v>16.61433266469427</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>9.847274419650345</v>
+        <v>16.73646027773206</v>
       </c>
       <c r="J18">
-        <v>48.01977273140292</v>
+        <v>9.702661130619086</v>
       </c>
       <c r="K18">
-        <v>30.84814574378487</v>
+        <v>47.69113127709962</v>
       </c>
       <c r="L18">
-        <v>25.50634876375677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>30.65888603086601</v>
+      </c>
+      <c r="M18">
+        <v>25.36095477256603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.92048785594103</v>
+        <v>12.89142917881941</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.94060965699434</v>
+        <v>8.826099670028016</v>
       </c>
       <c r="E19">
-        <v>16.38394420514394</v>
+        <v>16.11537332153724</v>
       </c>
       <c r="F19">
-        <v>62.9120857969459</v>
+        <v>62.65283210380712</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.934361917581845</v>
       </c>
       <c r="H19">
-        <v>16.6083795699778</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>9.817065018735361</v>
+        <v>16.73171132845458</v>
       </c>
       <c r="J19">
-        <v>47.76818051435027</v>
+        <v>9.672506462804781</v>
       </c>
       <c r="K19">
-        <v>30.68240268133804</v>
+        <v>47.44126711234955</v>
       </c>
       <c r="L19">
-        <v>25.37648726681092</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>30.49437884062075</v>
+      </c>
+      <c r="M19">
+        <v>25.23176320782077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.18220281199532</v>
+        <v>13.15265649135553</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.18371352348775</v>
+        <v>9.065596580203653</v>
       </c>
       <c r="E20">
-        <v>16.74529405567085</v>
+        <v>16.47495686296029</v>
       </c>
       <c r="F20">
-        <v>64.44963830619191</v>
+        <v>64.16773894260659</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.924929480154641</v>
       </c>
       <c r="H20">
-        <v>16.63848913366716</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>9.953584344966174</v>
+        <v>16.75632364347477</v>
       </c>
       <c r="J20">
-        <v>48.89911822397278</v>
+        <v>9.808743504888422</v>
       </c>
       <c r="K20">
-        <v>31.427741390579</v>
+        <v>48.5643289154219</v>
       </c>
       <c r="L20">
-        <v>25.95995105631249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>31.2340993133192</v>
+      </c>
+      <c r="M20">
+        <v>25.81216129938845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.04145129774952</v>
+        <v>14.01008834624186</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.01278892621628</v>
+        <v>9.882193986803145</v>
       </c>
       <c r="E21">
-        <v>17.97604025271251</v>
+        <v>17.69799433001421</v>
       </c>
       <c r="F21">
-        <v>69.68522156612107</v>
+        <v>69.32654656163989</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.892235220310696</v>
       </c>
       <c r="H21">
-        <v>16.8043123259781</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>10.42512215240274</v>
+        <v>16.90210196643126</v>
       </c>
       <c r="J21">
-        <v>52.69166493737892</v>
+        <v>10.27858975450566</v>
       </c>
       <c r="K21">
-        <v>33.93282875646316</v>
+        <v>52.3281412852624</v>
       </c>
       <c r="L21">
-        <v>27.91089359439155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>33.71896127421455</v>
+      </c>
+      <c r="M21">
+        <v>27.75168567636907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.59001776844645</v>
+        <v>14.55727677869137</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.57042555869847</v>
+        <v>10.4311166096213</v>
       </c>
       <c r="E22">
-        <v>18.80270803001614</v>
+        <v>18.51790799744594</v>
       </c>
       <c r="F22">
-        <v>73.19312229945902</v>
+        <v>72.78220868774342</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.86981512847855</v>
       </c>
       <c r="H22">
-        <v>16.97012845798941</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>10.74714445084562</v>
+        <v>17.05333840354004</v>
       </c>
       <c r="J22">
-        <v>55.18665342991801</v>
+        <v>10.59876918057528</v>
       </c>
       <c r="K22">
-        <v>35.58545036624918</v>
+        <v>54.80180393651858</v>
       </c>
       <c r="L22">
-        <v>29.18896083617131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>35.35679052788432</v>
+      </c>
+      <c r="M22">
+        <v>29.02109074057642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.29828007950351</v>
+        <v>14.26629678806644</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.27085187160301</v>
+        <v>10.13626819722869</v>
       </c>
       <c r="E23">
-        <v>18.35869659540768</v>
+        <v>18.07769110522527</v>
       </c>
       <c r="F23">
-        <v>71.31036789573781</v>
+        <v>70.92764646809989</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.881900695441557</v>
       </c>
       <c r="H23">
-        <v>16.87569403065803</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>10.57367690255575</v>
+        <v>16.96684471302935</v>
       </c>
       <c r="J23">
-        <v>53.85187912968134</v>
+        <v>10.42636769558511</v>
       </c>
       <c r="K23">
-        <v>34.70088209041685</v>
+        <v>53.47871400509143</v>
       </c>
       <c r="L23">
-        <v>28.5057942334822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>34.48030726833537</v>
+      </c>
+      <c r="M23">
+        <v>28.34268706265472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.1679104749451</v>
+        <v>13.1383914905765</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.170331304608768</v>
+        <v>9.052413197885221</v>
       </c>
       <c r="E24">
-        <v>16.72540855694785</v>
+        <v>16.45517428002892</v>
       </c>
       <c r="F24">
-        <v>64.36501334300918</v>
+        <v>64.08435699365899</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.925450584445123</v>
       </c>
       <c r="H24">
-        <v>16.63661298219212</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>9.946047899248923</v>
+        <v>16.7547546625379</v>
       </c>
       <c r="J24">
-        <v>48.83708618718756</v>
+        <v>9.801224995650491</v>
       </c>
       <c r="K24">
-        <v>31.38683930027209</v>
+        <v>48.50273624572844</v>
       </c>
       <c r="L24">
-        <v>25.92796690270312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>31.19350969073447</v>
+      </c>
+      <c r="M24">
+        <v>25.78034898381734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.88126198172613</v>
+        <v>11.85390464731826</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.012525087088793</v>
+        <v>7.911842701939223</v>
       </c>
       <c r="E25">
-        <v>15.00235284660985</v>
+        <v>14.73853974403281</v>
       </c>
       <c r="F25">
-        <v>57.04578759930822</v>
+        <v>56.87522856091134</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.969684367722627</v>
       </c>
       <c r="H25">
-        <v>16.57024825357</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>9.303992109654345</v>
+        <v>16.71291768164086</v>
       </c>
       <c r="J25">
-        <v>43.37142103510659</v>
+        <v>9.159711559779794</v>
       </c>
       <c r="K25">
-        <v>27.79222011097954</v>
+        <v>43.07279101116885</v>
       </c>
       <c r="L25">
-        <v>23.10181857016168</v>
+        <v>27.6247238429148</v>
+      </c>
+      <c r="M25">
+        <v>22.96780496336291</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.84066151321508</v>
+        <v>15.38898582280061</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.101132181347793</v>
+        <v>3.325996825715241</v>
       </c>
       <c r="E2">
-        <v>13.46262687654194</v>
+        <v>20.86627873765987</v>
       </c>
       <c r="F2">
-        <v>51.89454439086638</v>
+        <v>35.46389703621028</v>
       </c>
       <c r="G2">
-        <v>2.001256647237031</v>
+        <v>2.03404927118403</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.79831494990914</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.698571166994807</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>38.92679396457556</v>
+        <v>29.12831515167492</v>
       </c>
       <c r="L2">
-        <v>24.9127720951432</v>
+        <v>8.456618070744526</v>
       </c>
       <c r="M2">
-        <v>20.81113144033288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.24058795403319</v>
+      </c>
+      <c r="N2">
+        <v>13.28060530019637</v>
+      </c>
+      <c r="O2">
+        <v>27.54039082150567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.10859402686351</v>
+        <v>14.61963500571363</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.662883777475338</v>
+        <v>3.396320197635292</v>
       </c>
       <c r="E3">
-        <v>12.57737152096892</v>
+        <v>19.87717397876218</v>
       </c>
       <c r="F3">
-        <v>48.53203661117443</v>
+        <v>33.43987305959173</v>
       </c>
       <c r="G3">
-        <v>2.022493620182845</v>
+        <v>2.046117759263518</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.91192818363161</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.387790832873716</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>35.99234791351311</v>
+        <v>27.13269920473265</v>
       </c>
       <c r="L3">
-        <v>23.00028905462664</v>
+        <v>7.890912441245266</v>
       </c>
       <c r="M3">
-        <v>19.28076739470183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.75702544978938</v>
+      </c>
+      <c r="N3">
+        <v>13.5740204346304</v>
+      </c>
+      <c r="O3">
+        <v>26.10658804250054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.6358627499246</v>
+        <v>14.13655860322525</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.398378426506057</v>
+        <v>3.44277099213459</v>
       </c>
       <c r="E4">
-        <v>12.02066058949716</v>
+        <v>19.25224724424854</v>
       </c>
       <c r="F4">
-        <v>46.46280170718083</v>
+        <v>32.18215140304434</v>
       </c>
       <c r="G4">
-        <v>2.035569313299877</v>
+        <v>2.053678758979975</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.00471039463584</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.196662785009481</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>34.12092267942442</v>
+        <v>25.84570800861726</v>
       </c>
       <c r="L4">
-        <v>21.78371942757095</v>
+        <v>7.531270083050703</v>
       </c>
       <c r="M4">
-        <v>18.30333144424306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.45798357733011</v>
+      </c>
+      <c r="N4">
+        <v>13.75647229651336</v>
+      </c>
+      <c r="O4">
+        <v>25.22399800165485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.437270103613175</v>
+        <v>13.93723661678908</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.291619144442357</v>
+        <v>3.462456522537331</v>
       </c>
       <c r="E5">
-        <v>11.79014230883924</v>
+        <v>18.99317485805302</v>
       </c>
       <c r="F5">
-        <v>45.61790531242835</v>
+        <v>31.66624154908641</v>
       </c>
       <c r="G5">
-        <v>2.040921102264988</v>
+        <v>2.056801316232736</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.0477316720443</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.118569537426417</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>33.33975966838533</v>
+        <v>25.30550734187918</v>
       </c>
       <c r="L5">
-        <v>21.27663617020896</v>
+        <v>7.423846023901367</v>
       </c>
       <c r="M5">
-        <v>17.89503089555858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.3357291450863</v>
+      </c>
+      <c r="N5">
+        <v>13.83147311931238</v>
+      </c>
+      <c r="O5">
+        <v>24.86406332966521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.403931683254987</v>
+        <v>13.90399793785635</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.273951473731657</v>
+        <v>3.465769238213914</v>
       </c>
       <c r="E6">
-        <v>11.75163571284611</v>
+        <v>18.94989116356691</v>
       </c>
       <c r="F6">
-        <v>45.477503284042</v>
+        <v>31.58038501787256</v>
       </c>
       <c r="G6">
-        <v>2.041811549189351</v>
+        <v>2.057322409296065</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.05517456368776</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.10558653759167</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>33.20890096011321</v>
+        <v>25.21485040913293</v>
       </c>
       <c r="L6">
-        <v>21.19173349871205</v>
+        <v>7.405936104082553</v>
       </c>
       <c r="M6">
-        <v>17.82661673120182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.31540977696258</v>
+      </c>
+      <c r="N6">
+        <v>13.84396825079275</v>
+      </c>
+      <c r="O6">
+        <v>24.80429013310487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.633208685605565</v>
+        <v>14.1338801263986</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.396934588700907</v>
+        <v>3.443033495183591</v>
       </c>
       <c r="E7">
-        <v>12.01756693023938</v>
+        <v>19.24877110069226</v>
       </c>
       <c r="F7">
-        <v>46.45141425512944</v>
+        <v>32.17520673024411</v>
       </c>
       <c r="G7">
-        <v>2.035641377601878</v>
+        <v>2.053720698961872</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.00527020365925</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.195610577875417</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>34.11046396976074</v>
+        <v>25.83848669799928</v>
       </c>
       <c r="L7">
-        <v>21.77692739653165</v>
+        <v>7.529826247983378</v>
       </c>
       <c r="M7">
-        <v>18.29786599319096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.45633619557932</v>
+      </c>
+      <c r="N7">
+        <v>13.75748105853118</v>
+      </c>
+      <c r="O7">
+        <v>25.2191444532967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.59299830671202</v>
+        <v>15.12605332301903</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.94897977125444</v>
+        <v>3.349521855648452</v>
       </c>
       <c r="E8">
-        <v>13.1598873237338</v>
+        <v>20.52888823314607</v>
       </c>
       <c r="F8">
-        <v>50.735683296838</v>
+        <v>34.76930601187205</v>
       </c>
       <c r="G8">
-        <v>2.008580969102758</v>
+        <v>2.038181338488088</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.8323390888762</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.591388742758724</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>37.92879052881676</v>
+        <v>28.45287870626414</v>
       </c>
       <c r="L8">
-        <v>24.26167964528103</v>
+        <v>8.26510034257406</v>
       </c>
       <c r="M8">
-        <v>20.29098936135865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.07437804713375</v>
+      </c>
+      <c r="N8">
+        <v>13.38134499058174</v>
+      </c>
+      <c r="O8">
+        <v>27.04662335430385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.29655723416937</v>
+        <v>16.97933014032632</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.295068947683179</v>
+        <v>3.195745903993517</v>
       </c>
       <c r="E9">
-        <v>15.31648926462058</v>
+        <v>22.90113914944233</v>
       </c>
       <c r="F9">
-        <v>59.29483223866933</v>
+        <v>39.72827079483253</v>
       </c>
       <c r="G9">
-        <v>1.955012876663156</v>
+        <v>2.008732394204911</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.70639830721487</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>9.373182963562195</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>44.91971926929116</v>
+        <v>33.10235533319084</v>
       </c>
       <c r="L9">
-        <v>28.83646558873608</v>
+        <v>9.584064898530178</v>
       </c>
       <c r="M9">
-        <v>23.92613342003273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.26425820467195</v>
+      </c>
+      <c r="N9">
+        <v>12.65825449414527</v>
+      </c>
+      <c r="O9">
+        <v>30.60496263631595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.44933836363921</v>
+        <v>18.27767674003682</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.342643666711586</v>
+        <v>3.107075378559767</v>
       </c>
       <c r="E10">
-        <v>16.89039661936765</v>
+        <v>24.56611520111421</v>
       </c>
       <c r="F10">
-        <v>65.91953560783453</v>
+        <v>43.37915855893457</v>
       </c>
       <c r="G10">
-        <v>1.91392841338998</v>
+        <v>1.987445448241201</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.7950707820749</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9.967247249507514</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>49.8525809213026</v>
+        <v>36.2465710101116</v>
       </c>
       <c r="L10">
-        <v>32.08360680555758</v>
+        <v>10.47626998932895</v>
       </c>
       <c r="M10">
-        <v>26.47701886177829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.23387439586578</v>
+      </c>
+      <c r="N10">
+        <v>12.13003811932584</v>
+      </c>
+      <c r="O10">
+        <v>33.23588070863558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.95534125091066</v>
+        <v>18.85397680289787</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.828542200028837</v>
+        <v>3.073824172034075</v>
       </c>
       <c r="E11">
-        <v>17.61776908809436</v>
+        <v>25.30917850318285</v>
       </c>
       <c r="F11">
-        <v>68.98814123281984</v>
+        <v>45.10174813629446</v>
       </c>
       <c r="G11">
-        <v>1.89440789917909</v>
+        <v>1.977764919003028</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.88959920288958</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>10.2474781207377</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>52.08394014022137</v>
+        <v>37.62301715569464</v>
       </c>
       <c r="L11">
-        <v>33.55747422650331</v>
+        <v>10.86673433821595</v>
       </c>
       <c r="M11">
-        <v>27.62612889678342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.77273518185511</v>
+      </c>
+      <c r="N11">
+        <v>11.88888509253445</v>
+      </c>
+      <c r="O11">
+        <v>34.57737339992708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.14464843306943</v>
+        <v>19.07014776229452</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.01500882983761</v>
+        <v>3.062440642697267</v>
       </c>
       <c r="E12">
-        <v>17.8965211161897</v>
+        <v>25.58879390011191</v>
       </c>
       <c r="F12">
-        <v>70.16382100855549</v>
+        <v>45.75036488932474</v>
       </c>
       <c r="G12">
-        <v>1.886842277032595</v>
+        <v>1.974092467536441</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.93480821856411</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>10.35574801598239</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>52.93080041415591</v>
+        <v>38.13698920877983</v>
       </c>
       <c r="L12">
-        <v>34.11764725079842</v>
+        <v>11.01250170684353</v>
       </c>
       <c r="M12">
-        <v>28.06136532496241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.97360710639484</v>
+      </c>
+      <c r="N12">
+        <v>11.79729515424715</v>
+      </c>
+      <c r="O12">
+        <v>35.08250364280008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.10397369928726</v>
+        <v>19.02368275664309</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.974717958559234</v>
+        <v>3.064835179548719</v>
       </c>
       <c r="E13">
-        <v>17.83630620341255</v>
+        <v>25.52864672390646</v>
       </c>
       <c r="F13">
-        <v>69.90989438962124</v>
+        <v>45.61082670700399</v>
       </c>
       <c r="G13">
-        <v>1.888480457222238</v>
+        <v>1.974883815755703</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.9246225852112</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>10.33231998316131</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>52.74825685960192</v>
+        <v>38.02661036875468</v>
       </c>
       <c r="L13">
-        <v>33.99686325125605</v>
+        <v>10.981199038764</v>
       </c>
       <c r="M13">
-        <v>27.96759158043999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.9304846820837</v>
+      </c>
+      <c r="N13">
+        <v>11.81703527661628</v>
+      </c>
+      <c r="O13">
+        <v>34.97383302939635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.97095953941071</v>
+        <v>18.87180249740652</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.843825623379576</v>
+        <v>3.072862225428745</v>
       </c>
       <c r="E14">
-        <v>17.64062402178596</v>
+        <v>25.33221605664046</v>
       </c>
       <c r="F14">
-        <v>69.08455056542545</v>
+        <v>45.15518024920645</v>
       </c>
       <c r="G14">
-        <v>1.893789327482006</v>
+        <v>1.977462961845993</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.89311912929505</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>10.25633731468344</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>52.15354814818489</v>
+        <v>37.6654443503352</v>
       </c>
       <c r="L14">
-        <v>33.60350138806383</v>
+        <v>10.87876788877523</v>
       </c>
       <c r="M14">
-        <v>27.66192229062416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.78932388929137</v>
+      </c>
+      <c r="N14">
+        <v>11.88135626862923</v>
+      </c>
+      <c r="O14">
+        <v>34.61898491364991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.88919620275099</v>
+        <v>18.77850363784297</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.764011600351651</v>
+        <v>3.077942540415965</v>
       </c>
       <c r="E15">
-        <v>17.52125436015418</v>
+        <v>25.21167667393451</v>
       </c>
       <c r="F15">
-        <v>68.58099037567811</v>
+        <v>44.87562319681542</v>
       </c>
       <c r="G15">
-        <v>1.897016631895458</v>
+        <v>1.979041669236142</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.87510343494177</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>10.21010198419724</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>51.78964970638164</v>
+        <v>37.44329024931987</v>
       </c>
       <c r="L15">
-        <v>33.36291223994358</v>
+        <v>10.81575721921818</v>
       </c>
       <c r="M15">
-        <v>27.47476384718149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.70244914285522</v>
+      </c>
+      <c r="N15">
+        <v>11.92071480163968</v>
+      </c>
+      <c r="O15">
+        <v>34.40127388979429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.41592653257787</v>
+        <v>18.23972489363491</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.311164813555916</v>
+        <v>3.109406393208948</v>
       </c>
       <c r="E16">
-        <v>16.84322041181013</v>
+        <v>24.517289189832</v>
       </c>
       <c r="F16">
-        <v>65.720548062303</v>
+        <v>43.26603132474852</v>
       </c>
       <c r="G16">
-        <v>1.915183171157989</v>
+        <v>1.988077573242752</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.79011310862481</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>9.949189850785466</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>49.70679258801065</v>
+        <v>36.15557310507441</v>
       </c>
       <c r="L16">
-        <v>31.98741777390472</v>
+        <v>10.45045228116644</v>
       </c>
       <c r="M16">
-        <v>26.4018291540919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.19820448004861</v>
+      </c>
+      <c r="N16">
+        <v>12.14576861314269</v>
+      </c>
+      <c r="O16">
+        <v>33.14778084544301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.12109104695263</v>
+        <v>17.90551910105204</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.036441070793755</v>
+        <v>3.130647222443121</v>
       </c>
       <c r="E17">
-        <v>16.43120528182006</v>
+        <v>24.08781798873086</v>
       </c>
       <c r="F17">
-        <v>63.98333502385587</v>
+        <v>42.27135042633407</v>
       </c>
       <c r="G17">
-        <v>1.926081627821962</v>
+        <v>1.993616869273459</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.75288723072274</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>9.792119019957198</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>48.4280791193484</v>
+        <v>35.35212786842128</v>
       </c>
       <c r="L17">
-        <v>31.14431379937732</v>
+        <v>10.22248544731366</v>
       </c>
       <c r="M17">
-        <v>25.74178597502911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.88302940429618</v>
+      </c>
+      <c r="N17">
+        <v>12.28351275608177</v>
+      </c>
+      <c r="O17">
+        <v>32.4486726382255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.94975223673263</v>
+        <v>17.71194209608864</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.879222839535574</v>
+        <v>3.143518069268973</v>
       </c>
       <c r="E18">
-        <v>16.19517034586532</v>
+        <v>23.8394254093276</v>
       </c>
       <c r="F18">
-        <v>62.98887107397846</v>
+        <v>41.72984131706214</v>
       </c>
       <c r="G18">
-        <v>1.932275976870141</v>
+        <v>1.996803690334694</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.73646027773206</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>9.702661130619086</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>47.69113127709962</v>
+        <v>34.88490346627825</v>
       </c>
       <c r="L18">
-        <v>30.65888603086601</v>
+        <v>10.08990672625227</v>
       </c>
       <c r="M18">
-        <v>25.36095477256603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.74507438109475</v>
+      </c>
+      <c r="N18">
+        <v>12.36266803172336</v>
+      </c>
+      <c r="O18">
+        <v>32.05982038422163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.89142917881941</v>
+        <v>17.64616896510475</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.826099670028016</v>
+        <v>3.14798297312854</v>
       </c>
       <c r="E19">
-        <v>16.11537332153724</v>
+        <v>23.75508051932614</v>
       </c>
       <c r="F19">
-        <v>62.65283210380712</v>
+        <v>41.54915835826497</v>
       </c>
       <c r="G19">
-        <v>1.934361917581845</v>
+        <v>1.997883023151853</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.73171132845458</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>9.672506462804781</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>47.44126711234955</v>
+        <v>34.72581895329056</v>
       </c>
       <c r="L19">
-        <v>30.49437884062075</v>
+        <v>10.04476396640164</v>
       </c>
       <c r="M19">
-        <v>25.23176320782077</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.70169437238225</v>
+      </c>
+      <c r="N19">
+        <v>12.38946048645396</v>
+      </c>
+      <c r="O19">
+        <v>31.92811820929628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.15265649135553</v>
+        <v>17.94123580501148</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.065596580203653</v>
+        <v>3.128317184480552</v>
       </c>
       <c r="E20">
-        <v>16.47495686296029</v>
+        <v>24.13367604121832</v>
       </c>
       <c r="F20">
-        <v>64.16773894260659</v>
+        <v>42.37752630653402</v>
       </c>
       <c r="G20">
-        <v>1.924929480154641</v>
+        <v>1.993027170524724</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.75632364347477</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>9.808743504888422</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>48.5643289154219</v>
+        <v>35.43818091139408</v>
       </c>
       <c r="L20">
-        <v>31.2340993133192</v>
+        <v>10.24690299978004</v>
       </c>
       <c r="M20">
-        <v>25.81216129938845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.91680624076957</v>
+      </c>
+      <c r="N20">
+        <v>12.26885805085233</v>
+      </c>
+      <c r="O20">
+        <v>32.52062146162184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.01008834624186</v>
+        <v>18.91646917015771</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.882193986803145</v>
+        <v>3.07047002337525</v>
       </c>
       <c r="E21">
-        <v>17.69799433001421</v>
+        <v>25.38995769606493</v>
       </c>
       <c r="F21">
-        <v>69.32654656163989</v>
+        <v>45.28910933289747</v>
       </c>
       <c r="G21">
-        <v>1.892235220310696</v>
+        <v>1.976705646334718</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.90210196643126</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>10.27858975450566</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>52.3281412852624</v>
+        <v>37.77172029085983</v>
       </c>
       <c r="L21">
-        <v>33.71896127421455</v>
+        <v>10.90891013870503</v>
       </c>
       <c r="M21">
-        <v>27.75168567636907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.83087131527725</v>
+      </c>
+      <c r="N21">
+        <v>11.86247224762855</v>
+      </c>
+      <c r="O21">
+        <v>34.72328560581055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.55727677869137</v>
+        <v>19.54185320327143</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.4311166096213</v>
+        <v>3.039818263571318</v>
       </c>
       <c r="E22">
-        <v>18.51790799744594</v>
+        <v>26.20091033218064</v>
       </c>
       <c r="F22">
-        <v>72.78220868774342</v>
+        <v>47.17088151295228</v>
       </c>
       <c r="G22">
-        <v>1.86981512847855</v>
+        <v>1.965995733263842</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.05333840354004</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>10.59876918057528</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>54.80180393651858</v>
+        <v>39.25479926453585</v>
       </c>
       <c r="L22">
-        <v>35.35679052788432</v>
+        <v>11.32944109968651</v>
       </c>
       <c r="M22">
-        <v>29.02109074057642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.40979804225847</v>
+      </c>
+      <c r="N22">
+        <v>11.59521469513277</v>
+      </c>
+      <c r="O22">
+        <v>36.18882779650397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.26629678806644</v>
+        <v>19.20916090455029</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.13626819722869</v>
+        <v>3.055451248756107</v>
       </c>
       <c r="E23">
-        <v>18.07769110522527</v>
+        <v>25.76889471866361</v>
       </c>
       <c r="F23">
-        <v>70.92764646809989</v>
+        <v>46.16823873271251</v>
       </c>
       <c r="G23">
-        <v>1.881900695441557</v>
+        <v>1.971718373109469</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.96684471302935</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>10.42636769558511</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>53.47871400509143</v>
+        <v>38.46691591021248</v>
       </c>
       <c r="L23">
-        <v>34.48030726833537</v>
+        <v>11.1060602613915</v>
       </c>
       <c r="M23">
-        <v>28.34268706265472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.10244837566151</v>
+      </c>
+      <c r="N23">
+        <v>11.73806116919274</v>
+      </c>
+      <c r="O23">
+        <v>35.40794252365179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.1383914905765</v>
+        <v>17.9250927604709</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.052413197885221</v>
+        <v>3.129368555216824</v>
       </c>
       <c r="E24">
-        <v>16.45517428002892</v>
+        <v>24.11294825879436</v>
       </c>
       <c r="F24">
-        <v>64.08435699365899</v>
+        <v>42.32953388985518</v>
       </c>
       <c r="G24">
-        <v>1.925450584445123</v>
+        <v>1.993293765939293</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.7547546625379</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>9.801224995650491</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>48.50273624572844</v>
+        <v>35.39929291545364</v>
       </c>
       <c r="L24">
-        <v>31.19350969073447</v>
+        <v>10.23586856011139</v>
       </c>
       <c r="M24">
-        <v>25.78034898381734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.90154282988895</v>
+      </c>
+      <c r="N24">
+        <v>12.27548354344679</v>
+      </c>
+      <c r="O24">
+        <v>32.48809462301983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.85390464731826</v>
+        <v>16.4887343949808</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.911842701939223</v>
+        <v>3.233604557086896</v>
       </c>
       <c r="E25">
-        <v>14.73853974403281</v>
+        <v>22.27371863328381</v>
       </c>
       <c r="F25">
-        <v>56.87522856091134</v>
+        <v>38.40115411605996</v>
       </c>
       <c r="G25">
-        <v>1.969684367722627</v>
+        <v>2.016615816933596</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.71291768164086</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>9.159711559779794</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>43.07279101116885</v>
+        <v>31.89381448121556</v>
       </c>
       <c r="L25">
-        <v>27.6247238429148</v>
+        <v>9.241124637939036</v>
       </c>
       <c r="M25">
-        <v>22.96780496336291</v>
+        <v>12.94535635555215</v>
+      </c>
+      <c r="N25">
+        <v>12.85287406126568</v>
+      </c>
+      <c r="O25">
+        <v>29.64570228442767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.38898582280061</v>
+        <v>7.239120618522237</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.325996825715241</v>
+        <v>10.22690861892379</v>
       </c>
       <c r="E2">
-        <v>20.86627873765987</v>
+        <v>12.99028101133615</v>
       </c>
       <c r="F2">
-        <v>35.46389703621028</v>
+        <v>63.52655402856885</v>
       </c>
       <c r="G2">
-        <v>2.03404927118403</v>
+        <v>2.082377783398082</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>29.12831515167492</v>
+        <v>15.70367597873793</v>
       </c>
       <c r="L2">
-        <v>8.456618070744526</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.24058795403319</v>
+        <v>16.45879363869229</v>
       </c>
       <c r="N2">
-        <v>13.28060530019637</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>27.54039082150567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.61963500571363</v>
+        <v>6.878425039214241</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.396320197635292</v>
+        <v>9.780483962396994</v>
       </c>
       <c r="E3">
-        <v>19.87717397876218</v>
+        <v>12.20355935452399</v>
       </c>
       <c r="F3">
-        <v>33.43987305959173</v>
+        <v>59.79216770860896</v>
       </c>
       <c r="G3">
-        <v>2.046117759263518</v>
+        <v>2.096266636760809</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.13269920473265</v>
+        <v>14.54975154959924</v>
       </c>
       <c r="L3">
-        <v>7.890912441245266</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.75702544978938</v>
+        <v>15.27362736831874</v>
       </c>
       <c r="N3">
-        <v>13.5740204346304</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>26.10658804250054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.13655860322525</v>
+        <v>6.65230802087122</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.44277099213459</v>
+        <v>9.501986240780278</v>
       </c>
       <c r="E4">
-        <v>19.25224724424854</v>
+        <v>11.70833395809765</v>
       </c>
       <c r="F4">
-        <v>32.18215140304434</v>
+        <v>57.43512628384663</v>
       </c>
       <c r="G4">
-        <v>2.053678758979975</v>
+        <v>2.104912215765093</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>25.84570800861726</v>
+        <v>13.81252394989075</v>
       </c>
       <c r="L4">
-        <v>7.531270083050703</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.45798357733011</v>
+        <v>14.51495274079996</v>
       </c>
       <c r="N4">
-        <v>13.75647229651336</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>25.22399800165485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.93723661678908</v>
+        <v>6.559098553849227</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.462456522537331</v>
+        <v>9.387391463960444</v>
       </c>
       <c r="E5">
-        <v>18.99317485805302</v>
+        <v>11.50351428722621</v>
       </c>
       <c r="F5">
-        <v>31.66624154908641</v>
+        <v>56.45862756535783</v>
       </c>
       <c r="G5">
-        <v>2.056801316232736</v>
+        <v>2.108470311621465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.30550734187918</v>
+        <v>13.50459374809299</v>
       </c>
       <c r="L5">
-        <v>7.423846023901367</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.3357291450863</v>
+        <v>14.19774178571289</v>
       </c>
       <c r="N5">
-        <v>13.83147311931238</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>24.86406332966521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.90399793785635</v>
+        <v>6.543560342323798</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.465769238213914</v>
+        <v>9.368296748822488</v>
       </c>
       <c r="E6">
-        <v>18.94989116356691</v>
+        <v>11.46932474730994</v>
       </c>
       <c r="F6">
-        <v>31.58038501787256</v>
+        <v>56.29552350884212</v>
       </c>
       <c r="G6">
-        <v>2.057322409296065</v>
+        <v>2.109063387391602</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.21485040913293</v>
+        <v>13.45300118632546</v>
       </c>
       <c r="L6">
-        <v>7.405936104082553</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.31540977696258</v>
+        <v>14.14457630160014</v>
       </c>
       <c r="N6">
-        <v>13.84396825079275</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>24.80429013310487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.1338801263986</v>
+        <v>6.651055123747017</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.443033495183591</v>
+        <v>9.500445234055062</v>
       </c>
       <c r="E7">
-        <v>19.24877110069226</v>
+        <v>11.70558377642824</v>
       </c>
       <c r="F7">
-        <v>32.17520673024411</v>
+        <v>57.4220212626279</v>
       </c>
       <c r="G7">
-        <v>2.053720698961872</v>
+        <v>2.104960053314008</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>25.83848669799928</v>
+        <v>13.808401833713</v>
       </c>
       <c r="L7">
-        <v>7.529826247983378</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.45633619557932</v>
+        <v>14.51070761458637</v>
       </c>
       <c r="N7">
-        <v>13.75748105853118</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>25.2191444532967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.12605332301903</v>
+        <v>7.115773065876343</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.349521855648452</v>
+        <v>10.07388570724008</v>
       </c>
       <c r="E8">
-        <v>20.52888823314607</v>
+        <v>12.72156004996914</v>
       </c>
       <c r="F8">
-        <v>34.76930601187205</v>
+        <v>62.25225674982335</v>
       </c>
       <c r="G8">
-        <v>2.038181338488088</v>
+        <v>2.087145615654934</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>28.45287870626414</v>
+        <v>15.31158213111563</v>
       </c>
       <c r="L8">
-        <v>8.26510034257406</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.07437804713375</v>
+        <v>16.05641521368585</v>
       </c>
       <c r="N8">
-        <v>13.38134499058174</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>27.04662335430385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.97933014032632</v>
+        <v>7.98678923354152</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.195745903993517</v>
+        <v>11.16485398977945</v>
       </c>
       <c r="E9">
-        <v>22.90113914944233</v>
+        <v>14.61793240320812</v>
       </c>
       <c r="F9">
-        <v>39.72827079483253</v>
+        <v>71.22180271486417</v>
       </c>
       <c r="G9">
-        <v>2.008732394204911</v>
+        <v>2.052870295468814</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>33.10235533319084</v>
+        <v>18.04603603477438</v>
       </c>
       <c r="L9">
-        <v>9.584064898530178</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.26425820467195</v>
+        <v>18.8549095237883</v>
       </c>
       <c r="N9">
-        <v>12.65825449414527</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>30.60496263631595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.27767674003682</v>
+        <v>8.653981829483282</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.107075378559767</v>
+        <v>11.94985248803709</v>
       </c>
       <c r="E10">
-        <v>24.56611520111421</v>
+        <v>15.95787395261745</v>
       </c>
       <c r="F10">
-        <v>43.37915855893457</v>
+        <v>77.53219011658868</v>
       </c>
       <c r="G10">
-        <v>1.987445448241201</v>
+        <v>2.027639452153589</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>36.2465710101116</v>
+        <v>19.94859388387897</v>
       </c>
       <c r="L10">
-        <v>10.47626998932895</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.23387439586578</v>
+        <v>20.79052653855508</v>
       </c>
       <c r="N10">
-        <v>12.13003811932584</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>33.23588070863558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.85397680289787</v>
+        <v>8.982654619853026</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.073824172034075</v>
+        <v>12.30492350787507</v>
       </c>
       <c r="E11">
-        <v>25.30917850318285</v>
+        <v>16.55826793249068</v>
       </c>
       <c r="F11">
-        <v>45.10174813629446</v>
+        <v>80.35358476672019</v>
       </c>
       <c r="G11">
-        <v>1.977764919003028</v>
+        <v>2.016026468973113</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>37.62301715569464</v>
+        <v>20.79744580074474</v>
       </c>
       <c r="L11">
-        <v>10.86673433821595</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.77273518185511</v>
+        <v>21.65078408287854</v>
       </c>
       <c r="N11">
-        <v>11.88888509253445</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>34.57737339992708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.07014776229452</v>
+        <v>9.105132385366851</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.062440642697267</v>
+        <v>12.43927261431458</v>
       </c>
       <c r="E12">
-        <v>25.58879390011191</v>
+        <v>16.78459995518515</v>
       </c>
       <c r="F12">
-        <v>45.75036488932474</v>
+        <v>81.41625173593935</v>
       </c>
       <c r="G12">
-        <v>1.974092467536441</v>
+        <v>2.011596690306562</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>38.13698920877983</v>
+        <v>21.11715090158793</v>
       </c>
       <c r="L12">
-        <v>11.01250170684353</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.97360710639484</v>
+        <v>21.97422398490478</v>
       </c>
       <c r="N12">
-        <v>11.79729515424715</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>35.08250364280008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.02368275664309</v>
+        <v>9.078841111032528</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.064835179548719</v>
+        <v>12.41033946983996</v>
       </c>
       <c r="E13">
-        <v>25.52864672390646</v>
+        <v>16.73589527313405</v>
       </c>
       <c r="F13">
-        <v>45.61082670700399</v>
+        <v>81.18761687778448</v>
       </c>
       <c r="G13">
-        <v>1.974883815755703</v>
+        <v>2.01255238380907</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>38.02661036875468</v>
+        <v>21.04836214667969</v>
       </c>
       <c r="L13">
-        <v>10.981199038764</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.9304846820837</v>
+        <v>21.90465797879485</v>
       </c>
       <c r="N13">
-        <v>11.81703527661628</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>34.97383302939635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.87180249740652</v>
+        <v>8.992770080074452</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.072862225428745</v>
+        <v>12.31597742715691</v>
       </c>
       <c r="E14">
-        <v>25.33221605664046</v>
+        <v>16.57690694894891</v>
       </c>
       <c r="F14">
-        <v>45.15518024920645</v>
+        <v>80.44111686838411</v>
       </c>
       <c r="G14">
-        <v>1.977462961845993</v>
+        <v>2.015662755415621</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>37.6654443503352</v>
+        <v>20.82377874015222</v>
       </c>
       <c r="L14">
-        <v>10.87876788877523</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.78932388929137</v>
+        <v>21.6774363948891</v>
       </c>
       <c r="N14">
-        <v>11.88135626862923</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>34.61898491364991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.77850363784297</v>
+        <v>8.939793924679423</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.077942540415965</v>
+        <v>12.25817014764093</v>
       </c>
       <c r="E15">
-        <v>25.21167667393451</v>
+        <v>16.4793987674632</v>
       </c>
       <c r="F15">
-        <v>44.87562319681542</v>
+        <v>79.98316372758265</v>
       </c>
       <c r="G15">
-        <v>1.979041669236142</v>
+        <v>2.017563335366348</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>37.44329024931987</v>
+        <v>20.68601030283372</v>
       </c>
       <c r="L15">
-        <v>10.81575721921818</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.70244914285522</v>
+        <v>21.53797386317692</v>
       </c>
       <c r="N15">
-        <v>11.92071480163968</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>34.40127388979429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.23972489363491</v>
+        <v>8.632219092112782</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.109406393208948</v>
+        <v>11.92662142455027</v>
       </c>
       <c r="E16">
-        <v>24.517289189832</v>
+        <v>15.91847567165692</v>
       </c>
       <c r="F16">
-        <v>43.26603132474852</v>
+        <v>77.34692127271634</v>
       </c>
       <c r="G16">
-        <v>1.988077573242752</v>
+        <v>2.028394630243272</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>36.15557310507441</v>
+        <v>19.89283800164338</v>
       </c>
       <c r="L16">
-        <v>10.45045228116644</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.19820448004861</v>
+        <v>20.73394715082793</v>
       </c>
       <c r="N16">
-        <v>12.14576861314269</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>33.14778084544301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.90551910105204</v>
+        <v>8.439890257042498</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.130647222443121</v>
+        <v>11.72282186433177</v>
       </c>
       <c r="E17">
-        <v>24.08781798873086</v>
+        <v>15.57220513801892</v>
       </c>
       <c r="F17">
-        <v>42.27135042633407</v>
+        <v>75.71790539363836</v>
       </c>
       <c r="G17">
-        <v>1.993616869273459</v>
+        <v>2.034996284668565</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>35.35212786842128</v>
+        <v>19.40242200137121</v>
       </c>
       <c r="L17">
-        <v>10.22248544731366</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.88302940429618</v>
+        <v>20.23590145096846</v>
       </c>
       <c r="N17">
-        <v>12.28351275608177</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>32.4486726382255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.71194209608864</v>
+        <v>8.332129374730112</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.143518069268973</v>
+        <v>11.6053970080692</v>
       </c>
       <c r="E18">
-        <v>23.8394254093276</v>
+        <v>15.37215586575424</v>
       </c>
       <c r="F18">
-        <v>41.72984131706214</v>
+        <v>74.77620340834613</v>
       </c>
       <c r="G18">
-        <v>1.996803690334694</v>
+        <v>2.038781530029051</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>34.88490346627825</v>
+        <v>19.11873676117754</v>
       </c>
       <c r="L18">
-        <v>10.08990672625227</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>13.74507438109475</v>
+        <v>19.94749015992992</v>
       </c>
       <c r="N18">
-        <v>12.36266803172336</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>32.05982038422163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.64616896510475</v>
+        <v>8.301100800695645</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.14798297312854</v>
+        <v>11.56559904915412</v>
       </c>
       <c r="E19">
-        <v>23.75508051932614</v>
+        <v>15.3042633117297</v>
       </c>
       <c r="F19">
-        <v>41.54915835826497</v>
+        <v>74.45651096990694</v>
       </c>
       <c r="G19">
-        <v>1.997883023151853</v>
+        <v>2.040061463449645</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>34.72581895329056</v>
+        <v>19.02239109711373</v>
       </c>
       <c r="L19">
-        <v>10.04476396640164</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13.70169437238225</v>
+        <v>19.84948803782512</v>
       </c>
       <c r="N19">
-        <v>12.38946048645396</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>31.92811820929628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.94123580501148</v>
+        <v>8.460504998753256</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.128317184480552</v>
+        <v>11.7445367020793</v>
       </c>
       <c r="E20">
-        <v>24.13367604121832</v>
+        <v>15.60915583108313</v>
       </c>
       <c r="F20">
-        <v>42.37752630653402</v>
+        <v>75.89179841146201</v>
       </c>
       <c r="G20">
-        <v>1.993027170524724</v>
+        <v>2.034294838527311</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>35.43818091139408</v>
+        <v>19.45478998527859</v>
       </c>
       <c r="L20">
-        <v>10.24690299978004</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.91680624076957</v>
+        <v>20.28911698455924</v>
       </c>
       <c r="N20">
-        <v>12.26885805085233</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>32.52062146162184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.91646917015771</v>
+        <v>9.01810420882174</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.07047002337525</v>
+        <v>12.34369506927195</v>
       </c>
       <c r="E21">
-        <v>25.38995769606493</v>
+        <v>16.62363071192445</v>
       </c>
       <c r="F21">
-        <v>45.28910933289747</v>
+        <v>80.66052501546879</v>
       </c>
       <c r="G21">
-        <v>1.976705646334718</v>
+        <v>2.014750151431935</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>37.77172029085983</v>
+        <v>20.88978562225554</v>
       </c>
       <c r="L21">
-        <v>10.90891013870503</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.83087131527725</v>
+        <v>21.74423458532661</v>
       </c>
       <c r="N21">
-        <v>11.86247224762855</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>34.72328560581055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.54185320327143</v>
+        <v>9.371022717636995</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.039818263571318</v>
+        <v>12.73477228750707</v>
       </c>
       <c r="E22">
-        <v>26.20091033218064</v>
+        <v>17.28088008643962</v>
       </c>
       <c r="F22">
-        <v>47.17088151295228</v>
+        <v>83.74465461817978</v>
       </c>
       <c r="G22">
-        <v>1.965995733263842</v>
+        <v>2.001781089143367</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>39.25479926453585</v>
+        <v>21.81791621372055</v>
       </c>
       <c r="L22">
-        <v>11.32944109968651</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.40979804225847</v>
+        <v>22.68207207565425</v>
       </c>
       <c r="N22">
-        <v>11.59521469513277</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>36.18882779650397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.20916090455029</v>
+        <v>9.18367991763424</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.055451248756107</v>
+        <v>12.52601848720736</v>
       </c>
       <c r="E23">
-        <v>25.76889471866361</v>
+        <v>16.9305016998143</v>
       </c>
       <c r="F23">
-        <v>46.16823873271251</v>
+        <v>82.10102345360788</v>
       </c>
       <c r="G23">
-        <v>1.971718373109469</v>
+        <v>2.008725695847871</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>38.46691591021248</v>
+        <v>21.3231942825622</v>
       </c>
       <c r="L23">
-        <v>11.1060602613915</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.10244837566151</v>
+        <v>22.18250838930222</v>
       </c>
       <c r="N23">
-        <v>11.73806116919274</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>35.40794252365179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.9250927604709</v>
+        <v>8.451189500801631</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.129368555216824</v>
+        <v>11.73472023978843</v>
       </c>
       <c r="E24">
-        <v>24.11294825879436</v>
+        <v>15.59245347630275</v>
       </c>
       <c r="F24">
-        <v>42.32953388985518</v>
+        <v>75.81319754357449</v>
       </c>
       <c r="G24">
-        <v>1.993293765939293</v>
+        <v>2.034611992971615</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.39929291545364</v>
+        <v>19.43111988239732</v>
       </c>
       <c r="L24">
-        <v>10.23586856011139</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.90154282988895</v>
+        <v>20.26506475780727</v>
       </c>
       <c r="N24">
-        <v>12.27548354344679</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>32.48809462301983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.4887343949808</v>
+        <v>7.755856564616787</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.233604557086896</v>
+        <v>10.87301876681485</v>
       </c>
       <c r="E25">
-        <v>22.27371863328381</v>
+        <v>14.11486936966861</v>
       </c>
       <c r="F25">
-        <v>38.40115411605996</v>
+        <v>68.84727021040028</v>
       </c>
       <c r="G25">
-        <v>2.016615816933596</v>
+        <v>2.062114467396218</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>31.89381448121556</v>
+        <v>17.32690268101752</v>
       </c>
       <c r="L25">
-        <v>9.241124637939036</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.94535635555215</v>
+        <v>18.12073184031155</v>
       </c>
       <c r="N25">
-        <v>12.85287406126568</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>29.64570228442767</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.239120618522237</v>
+        <v>7.853016668497649</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.22690861892379</v>
+        <v>9.088369646221008</v>
       </c>
       <c r="E2">
-        <v>12.99028101133615</v>
+        <v>10.96689336586168</v>
       </c>
       <c r="F2">
-        <v>63.52655402856885</v>
+        <v>49.13524593267123</v>
       </c>
       <c r="G2">
-        <v>2.082377783398082</v>
+        <v>3.695012136940502</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.70367597873793</v>
+        <v>12.34625181915244</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.45879363869229</v>
+        <v>15.36039177750424</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.878425039214241</v>
+        <v>7.785858890209346</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.780483962396994</v>
+        <v>8.939182259227128</v>
       </c>
       <c r="E3">
-        <v>12.20355935452399</v>
+        <v>10.74600278831383</v>
       </c>
       <c r="F3">
-        <v>59.79216770860896</v>
+        <v>47.83945206849071</v>
       </c>
       <c r="G3">
-        <v>2.096266636760809</v>
+        <v>3.699445129012229</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.54975154959924</v>
+        <v>12.21652037861133</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.27362736831874</v>
+        <v>15.22834356188051</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.65230802087122</v>
+        <v>7.746300445866833</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.501986240780278</v>
+        <v>8.845951120845916</v>
       </c>
       <c r="E4">
-        <v>11.70833395809765</v>
+        <v>10.61058355509153</v>
       </c>
       <c r="F4">
-        <v>57.43512628384663</v>
+        <v>47.03086974883865</v>
       </c>
       <c r="G4">
-        <v>2.104912215765093</v>
+        <v>3.70230162081969</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.81252394989075</v>
+        <v>12.14370142880355</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.51495274079996</v>
+        <v>15.15283563973332</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.559098553849227</v>
+        <v>7.730618163224602</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.387391463960444</v>
+        <v>8.807572175548442</v>
       </c>
       <c r="E5">
-        <v>11.50351428722621</v>
+        <v>10.55552102700945</v>
       </c>
       <c r="F5">
-        <v>56.45862756535783</v>
+        <v>46.69850302701713</v>
       </c>
       <c r="G5">
-        <v>2.108470311621465</v>
+        <v>3.703499667748156</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.50459374809299</v>
+        <v>12.11578703011279</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.19774178571289</v>
+        <v>15.12349705277274</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.543560342323798</v>
+        <v>7.728041057909301</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.368296748822488</v>
+        <v>8.801176726863259</v>
       </c>
       <c r="E6">
-        <v>11.46932474730994</v>
+        <v>10.54638734644501</v>
       </c>
       <c r="F6">
-        <v>56.29552350884212</v>
+        <v>46.64315286032549</v>
       </c>
       <c r="G6">
-        <v>2.109063387391602</v>
+        <v>3.703700660721014</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.45300118632546</v>
+        <v>12.11125924825798</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.14457630160014</v>
+        <v>15.11871269778988</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.651055123747017</v>
+        <v>7.74608715407609</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.500445234055062</v>
+        <v>8.845435062809056</v>
       </c>
       <c r="E7">
-        <v>11.70558377642824</v>
+        <v>10.60984037651952</v>
       </c>
       <c r="F7">
-        <v>57.4220212626279</v>
+        <v>47.02639838790589</v>
       </c>
       <c r="G7">
-        <v>2.104960053314008</v>
+        <v>3.702317640217812</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.808401833713</v>
+        <v>12.14331778958657</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.51070761458637</v>
+        <v>15.15243413486471</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.115773065876343</v>
+        <v>7.829522803779549</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.07388570724008</v>
+        <v>9.037281798810435</v>
       </c>
       <c r="E8">
-        <v>12.72156004996914</v>
+        <v>10.89072839526425</v>
       </c>
       <c r="F8">
-        <v>62.25225674982335</v>
+        <v>48.69137679799665</v>
       </c>
       <c r="G8">
-        <v>2.087145615654934</v>
+        <v>3.696512785217299</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.31158213111563</v>
+        <v>12.30012751948261</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.05641521368585</v>
+        <v>15.31372494854361</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.98678923354152</v>
+        <v>8.005682116850684</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.16485398977945</v>
+        <v>9.399577020362591</v>
       </c>
       <c r="E9">
-        <v>14.61793240320812</v>
+        <v>11.44021514357754</v>
       </c>
       <c r="F9">
-        <v>71.22180271486417</v>
+        <v>51.83731866180889</v>
       </c>
       <c r="G9">
-        <v>2.052870295468814</v>
+        <v>3.686190615225303</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.04603603477438</v>
+        <v>12.65983502525913</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.8549095237883</v>
+        <v>15.67270317351568</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.653981829483282</v>
+        <v>8.141687567077364</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.94985248803709</v>
+        <v>9.656007478703019</v>
       </c>
       <c r="E10">
-        <v>15.95787395261745</v>
+        <v>11.83924348969237</v>
       </c>
       <c r="F10">
-        <v>77.53219011658868</v>
+        <v>54.05601213973218</v>
       </c>
       <c r="G10">
-        <v>2.027639452153589</v>
+        <v>3.679243999468526</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.94859388387897</v>
+        <v>12.9528985653224</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.79052653855508</v>
+        <v>15.96025020760918</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.982654619853026</v>
+        <v>8.204752672120771</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.30492350787507</v>
+        <v>9.770296379178843</v>
       </c>
       <c r="E11">
-        <v>16.55826793249068</v>
+        <v>12.01898669556042</v>
       </c>
       <c r="F11">
-        <v>80.35358476672019</v>
+        <v>55.04150425789497</v>
       </c>
       <c r="G11">
-        <v>2.016026468973113</v>
+        <v>3.676220030211075</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.79744580074474</v>
+        <v>13.0917575491844</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.65078408287854</v>
+        <v>16.09571267144426</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.105132385366851</v>
+        <v>8.228785462754319</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.43927261431458</v>
+        <v>9.813214920230823</v>
       </c>
       <c r="E12">
-        <v>16.78459995518515</v>
+        <v>12.08673519733691</v>
       </c>
       <c r="F12">
-        <v>81.41625173593935</v>
+        <v>55.4109839321648</v>
       </c>
       <c r="G12">
-        <v>2.011596690306562</v>
+        <v>3.675094335902972</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.11715090158793</v>
+        <v>13.14507426870945</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.97422398490478</v>
+        <v>16.14763231075602</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.078841111032528</v>
+        <v>8.22360316521222</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.41033946983996</v>
+        <v>9.803987978618796</v>
       </c>
       <c r="E13">
-        <v>16.73589527313405</v>
+        <v>12.07215934734005</v>
       </c>
       <c r="F13">
-        <v>81.18761687778448</v>
+        <v>55.33157886905187</v>
       </c>
       <c r="G13">
-        <v>2.01255238380907</v>
+        <v>3.675335913133483</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.04836214667969</v>
+        <v>13.1335599399529</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.90465797879485</v>
+        <v>16.1364235349755</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.992770080074452</v>
+        <v>8.206726947764773</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.31597742715691</v>
+        <v>9.773834645523333</v>
       </c>
       <c r="E14">
-        <v>16.57690694894891</v>
+        <v>12.02456708200107</v>
       </c>
       <c r="F14">
-        <v>80.44111686838411</v>
+        <v>55.07197734887568</v>
       </c>
       <c r="G14">
-        <v>2.015662755415621</v>
+        <v>3.676127030379056</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.82377874015222</v>
+        <v>13.09612960676029</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.6774363948891</v>
+        <v>16.09997191737029</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.939793924679423</v>
+        <v>8.196408883935575</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.25817014764093</v>
+        <v>9.755317362112399</v>
       </c>
       <c r="E15">
-        <v>16.4793987674632</v>
+        <v>11.99537249987253</v>
       </c>
       <c r="F15">
-        <v>79.98316372758265</v>
+        <v>54.91247350670439</v>
       </c>
       <c r="G15">
-        <v>2.017563335366348</v>
+        <v>3.676614136742439</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.68601030283372</v>
+        <v>13.07329611787685</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.53797386317692</v>
+        <v>16.07772397346962</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.632219092112782</v>
+        <v>8.137588420805992</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.92662142455027</v>
+        <v>9.648489117944225</v>
       </c>
       <c r="E16">
-        <v>15.91847567165692</v>
+        <v>11.82745581575553</v>
       </c>
       <c r="F16">
-        <v>77.34692127271634</v>
+        <v>53.99110425914664</v>
       </c>
       <c r="G16">
-        <v>2.028394630243272</v>
+        <v>3.67944434835928</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.89283800164338</v>
+        <v>12.94392996530854</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.73394715082793</v>
+        <v>15.95148715181112</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.439890257042498</v>
+        <v>8.1017956277837</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.72282186433177</v>
+        <v>9.5823334664802</v>
       </c>
       <c r="E17">
-        <v>15.57220513801892</v>
+        <v>11.72394492480835</v>
       </c>
       <c r="F17">
-        <v>75.71790539363836</v>
+        <v>53.41956896373213</v>
       </c>
       <c r="G17">
-        <v>2.034996284668565</v>
+        <v>3.681215337695507</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.40242200137121</v>
+        <v>12.86594312991125</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.23590145096846</v>
+        <v>15.87520469422147</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.332129374730112</v>
+        <v>8.081322329906122</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.6053970080692</v>
+        <v>9.5440612668129</v>
       </c>
       <c r="E18">
-        <v>15.37215586575424</v>
+        <v>11.66424438942017</v>
       </c>
       <c r="F18">
-        <v>74.77620340834613</v>
+        <v>53.08861179876224</v>
       </c>
       <c r="G18">
-        <v>2.038781530029051</v>
+        <v>3.682246781561322</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.11873676117754</v>
+        <v>12.82161278012936</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.94749015992992</v>
+        <v>15.83177015263796</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.301100800695645</v>
+        <v>8.074410586006847</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.56559904915412</v>
+        <v>9.53106560258562</v>
       </c>
       <c r="E19">
-        <v>15.3042633117297</v>
+        <v>11.64400458925795</v>
       </c>
       <c r="F19">
-        <v>74.45651096990694</v>
+        <v>52.97618221892879</v>
       </c>
       <c r="G19">
-        <v>2.040061463449645</v>
+        <v>3.682598216771344</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.02239109711373</v>
+        <v>12.80669546554483</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.84948803782512</v>
+        <v>15.81714112314018</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.460504998753256</v>
+        <v>8.105594205165403</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.7445367020793</v>
+        <v>9.589398895108896</v>
       </c>
       <c r="E20">
-        <v>15.60915583108313</v>
+        <v>11.73498124103717</v>
       </c>
       <c r="F20">
-        <v>75.89179841146201</v>
+        <v>53.48064229201559</v>
       </c>
       <c r="G20">
-        <v>2.034294838527311</v>
+        <v>3.681025487374313</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.45478998527859</v>
+        <v>12.87419101665644</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.28911698455924</v>
+        <v>15.88327977239874</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.01810420882174</v>
+        <v>8.211679956835635</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.34369506927195</v>
+        <v>9.782701343622477</v>
       </c>
       <c r="E21">
-        <v>16.62363071192445</v>
+        <v>12.03855513752806</v>
       </c>
       <c r="F21">
-        <v>80.66052501546879</v>
+        <v>55.14833127842075</v>
       </c>
       <c r="G21">
-        <v>2.014750151431935</v>
+        <v>3.675894134293604</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.88978562225554</v>
+        <v>13.10710439626872</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.74423458532661</v>
+        <v>16.11066211115691</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.371022717636995</v>
+        <v>8.281886066224351</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.73477228750707</v>
+        <v>9.906927473946199</v>
       </c>
       <c r="E22">
-        <v>17.28088008643962</v>
+        <v>12.23508853701038</v>
       </c>
       <c r="F22">
-        <v>83.74465461817978</v>
+        <v>56.21655476998905</v>
       </c>
       <c r="G22">
-        <v>2.001781089143367</v>
+        <v>3.672653606608187</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.81791621372055</v>
+        <v>13.26357414829513</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.68207207565425</v>
+        <v>16.26287831143585</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.18367991763424</v>
+        <v>8.244342667731715</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.52601848720736</v>
+        <v>9.840825040810033</v>
       </c>
       <c r="E23">
-        <v>16.9305016998143</v>
+        <v>12.13038524687753</v>
       </c>
       <c r="F23">
-        <v>82.10102345360788</v>
+        <v>55.64849675192235</v>
       </c>
       <c r="G23">
-        <v>2.008725695847871</v>
+        <v>3.674372837770516</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.3231942825622</v>
+        <v>13.17969580296093</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.18250838930222</v>
+        <v>16.18132311641847</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.451189500801631</v>
+        <v>8.103876541421148</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.73472023978843</v>
+        <v>9.586205355933648</v>
       </c>
       <c r="E24">
-        <v>15.59245347630275</v>
+        <v>11.7299923119449</v>
       </c>
       <c r="F24">
-        <v>75.81319754357449</v>
+        <v>53.45303841283113</v>
       </c>
       <c r="G24">
-        <v>2.034611992971615</v>
+        <v>3.681111277333899</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.43111988239732</v>
+        <v>12.87046056831439</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.26506475780727</v>
+        <v>15.87962771390743</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.755856564616787</v>
+        <v>7.956791470951344</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.87301876681485</v>
+        <v>9.303189928266157</v>
       </c>
       <c r="E25">
-        <v>14.11486936966861</v>
+        <v>11.2921154313787</v>
       </c>
       <c r="F25">
-        <v>68.84727021040028</v>
+        <v>51.00117157631593</v>
       </c>
       <c r="G25">
-        <v>2.062114467396218</v>
+        <v>3.688870448299749</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.32690268101752</v>
+        <v>12.55723545469825</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.12073184031155</v>
+        <v>15.57123934598693</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.853016668497649</v>
+        <v>7.239120618522195</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.088369646221008</v>
+        <v>10.22690861892382</v>
       </c>
       <c r="E2">
-        <v>10.96689336586168</v>
+        <v>12.99028101133615</v>
       </c>
       <c r="F2">
-        <v>49.13524593267123</v>
+        <v>63.5265540285689</v>
       </c>
       <c r="G2">
-        <v>3.695012136940502</v>
+        <v>2.082377783398079</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.34625181915244</v>
+        <v>15.70367597873797</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.36039177750424</v>
+        <v>16.4587936386923</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.785858890209346</v>
+        <v>6.878425039214203</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.939182259227128</v>
+        <v>9.780483962396939</v>
       </c>
       <c r="E3">
-        <v>10.74600278831383</v>
+        <v>12.20355935452402</v>
       </c>
       <c r="F3">
-        <v>47.83945206849071</v>
+        <v>59.79216770860884</v>
       </c>
       <c r="G3">
-        <v>3.699445129012229</v>
+        <v>2.096266636760685</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.21652037861133</v>
+        <v>14.54975154959931</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.22834356188051</v>
+        <v>15.27362736831874</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.746300445866833</v>
+        <v>6.652308020871253</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.845951120845916</v>
+        <v>9.501986240780266</v>
       </c>
       <c r="E4">
-        <v>10.61058355509153</v>
+        <v>11.70833395809762</v>
       </c>
       <c r="F4">
-        <v>47.03086974883865</v>
+        <v>57.43512628384659</v>
       </c>
       <c r="G4">
-        <v>3.70230162081969</v>
+        <v>2.104912215765096</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.14370142880355</v>
+        <v>13.8125239498908</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.15283563973332</v>
+        <v>14.51495274080005</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.730618163224602</v>
+        <v>6.559098553849248</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.807572175548442</v>
+        <v>9.38739146396051</v>
       </c>
       <c r="E5">
-        <v>10.55552102700945</v>
+        <v>11.50351428722625</v>
       </c>
       <c r="F5">
-        <v>46.69850302701713</v>
+        <v>56.45862756535792</v>
       </c>
       <c r="G5">
-        <v>3.703499667748156</v>
+        <v>2.108470311622247</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.11578703011279</v>
+        <v>13.50459374809314</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.12349705277274</v>
+        <v>14.19774178571289</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.728041057909301</v>
+        <v>6.543560342323755</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.801176726863259</v>
+        <v>9.368296748822619</v>
       </c>
       <c r="E6">
-        <v>10.54638734644501</v>
+        <v>11.46932474730994</v>
       </c>
       <c r="F6">
-        <v>46.64315286032549</v>
+        <v>56.29552350884233</v>
       </c>
       <c r="G6">
-        <v>3.703700660721014</v>
+        <v>2.109063387391469</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.11125924825798</v>
+        <v>13.45300118632534</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.11871269778988</v>
+        <v>14.14457630160013</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.74608715407609</v>
+        <v>6.651055123747001</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.845435062809056</v>
+        <v>9.500445234055077</v>
       </c>
       <c r="E7">
-        <v>10.60984037651952</v>
+        <v>11.70558377642826</v>
       </c>
       <c r="F7">
-        <v>47.02639838790589</v>
+        <v>57.4220212626279</v>
       </c>
       <c r="G7">
-        <v>3.702317640217812</v>
+        <v>2.104960053314006</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.14331778958657</v>
+        <v>13.80840183371304</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.15243413486471</v>
+        <v>14.51070761458639</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.829522803779549</v>
+        <v>7.115773065876437</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.037281798810435</v>
+        <v>10.0738857072401</v>
       </c>
       <c r="E8">
-        <v>10.89072839526425</v>
+        <v>12.7215600499691</v>
       </c>
       <c r="F8">
-        <v>48.69137679799665</v>
+        <v>62.25225674982325</v>
       </c>
       <c r="G8">
-        <v>3.696512785217299</v>
+        <v>2.087145615654937</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.30012751948261</v>
+        <v>15.31158213111566</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.31372494854361</v>
+        <v>16.05641521368587</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.005682116850684</v>
+        <v>7.986789233541566</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.399577020362591</v>
+        <v>11.16485398977936</v>
       </c>
       <c r="E9">
-        <v>11.44021514357754</v>
+        <v>14.61793240320804</v>
       </c>
       <c r="F9">
-        <v>51.83731866180889</v>
+        <v>71.22180271486357</v>
       </c>
       <c r="G9">
-        <v>3.686190615225303</v>
+        <v>2.052870295469094</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.65983502525913</v>
+        <v>18.04603603477438</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.67270317351568</v>
+        <v>18.85490952378824</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.141687567077364</v>
+        <v>8.653981829483316</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.656007478703019</v>
+        <v>11.94985248803708</v>
       </c>
       <c r="E10">
-        <v>11.83924348969237</v>
+        <v>15.9578739526174</v>
       </c>
       <c r="F10">
-        <v>54.05601213973218</v>
+        <v>77.53219011658844</v>
       </c>
       <c r="G10">
-        <v>3.679243999468526</v>
+        <v>2.027639452153589</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.9528985653224</v>
+        <v>19.94859388387894</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.96025020760918</v>
+        <v>20.79052653855508</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.204752672120771</v>
+        <v>8.98265461985315</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.770296379178843</v>
+        <v>12.30492350787504</v>
       </c>
       <c r="E11">
-        <v>12.01898669556042</v>
+        <v>16.5582679324907</v>
       </c>
       <c r="F11">
-        <v>55.04150425789497</v>
+        <v>80.35358476672026</v>
       </c>
       <c r="G11">
-        <v>3.676220030211075</v>
+        <v>2.016026468973265</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.0917575491844</v>
+        <v>20.79744580074483</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.09571267144426</v>
+        <v>21.65078408287861</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.228785462754319</v>
+        <v>9.105132385366796</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.813214920230823</v>
+        <v>12.43927261431456</v>
       </c>
       <c r="E12">
-        <v>12.08673519733691</v>
+        <v>16.78459995518507</v>
       </c>
       <c r="F12">
-        <v>55.4109839321648</v>
+        <v>81.41625173593913</v>
       </c>
       <c r="G12">
-        <v>3.675094335902972</v>
+        <v>2.011596690306409</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.14507426870945</v>
+        <v>21.11715090158799</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.14763231075602</v>
+        <v>21.97422398490479</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.22360316521222</v>
+        <v>9.078841111032478</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.803987978618796</v>
+        <v>12.41033946983997</v>
       </c>
       <c r="E13">
-        <v>12.07215934734005</v>
+        <v>16.73589527313405</v>
       </c>
       <c r="F13">
-        <v>55.33157886905187</v>
+        <v>81.18761687778451</v>
       </c>
       <c r="G13">
-        <v>3.675335913133483</v>
+        <v>2.012552383809356</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.1335599399529</v>
+        <v>21.0483621466796</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.1364235349755</v>
+        <v>21.9046579787948</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.206726947764773</v>
+        <v>8.992770080074477</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.773834645523333</v>
+        <v>12.31597742715699</v>
       </c>
       <c r="E14">
-        <v>12.02456708200107</v>
+        <v>16.57690694894896</v>
       </c>
       <c r="F14">
-        <v>55.07197734887568</v>
+        <v>80.44111686838455</v>
       </c>
       <c r="G14">
-        <v>3.676127030379056</v>
+        <v>2.015662755415593</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.09612960676029</v>
+        <v>20.82377874015235</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.09997191737029</v>
+        <v>21.67743639488917</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.196408883935575</v>
+        <v>8.939793924679407</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.755317362112399</v>
+        <v>12.25817014764083</v>
       </c>
       <c r="E15">
-        <v>11.99537249987253</v>
+        <v>16.47939876746326</v>
       </c>
       <c r="F15">
-        <v>54.91247350670439</v>
+        <v>79.98316372758258</v>
       </c>
       <c r="G15">
-        <v>3.676614136742439</v>
+        <v>2.017563335366625</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.07329611787685</v>
+        <v>20.68601030283356</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.07772397346962</v>
+        <v>21.53797386317687</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.137588420805992</v>
+        <v>8.632219092112768</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.648489117944225</v>
+        <v>11.92662142455039</v>
       </c>
       <c r="E16">
-        <v>11.82745581575553</v>
+        <v>15.918475671657</v>
       </c>
       <c r="F16">
-        <v>53.99110425914664</v>
+        <v>77.34692127271687</v>
       </c>
       <c r="G16">
-        <v>3.67944434835928</v>
+        <v>2.028394630243008</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.94392996530854</v>
+        <v>19.89283800164339</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.95148715181112</v>
+        <v>20.73394715082799</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.1017956277837</v>
+        <v>8.439890257042517</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.5823334664802</v>
+        <v>11.72282186433172</v>
       </c>
       <c r="E17">
-        <v>11.72394492480835</v>
+        <v>15.57220513801891</v>
       </c>
       <c r="F17">
-        <v>53.41956896373213</v>
+        <v>75.71790539363789</v>
       </c>
       <c r="G17">
-        <v>3.681215337695507</v>
+        <v>2.03499628466857</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.86594312991125</v>
+        <v>19.40242200137102</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.87520469422147</v>
+        <v>20.23590145096837</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.081322329906122</v>
+        <v>8.332129374730128</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.5440612668129</v>
+        <v>11.60539700806919</v>
       </c>
       <c r="E18">
-        <v>11.66424438942017</v>
+        <v>15.37215586575428</v>
       </c>
       <c r="F18">
-        <v>53.08861179876224</v>
+        <v>74.77620340834633</v>
       </c>
       <c r="G18">
-        <v>3.682246781561322</v>
+        <v>2.038781530029064</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.82161278012936</v>
+        <v>19.11873676117759</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.83177015263796</v>
+        <v>19.94749015992998</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.074410586006847</v>
+        <v>8.301100800695632</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.53106560258562</v>
+        <v>11.56559904915415</v>
       </c>
       <c r="E19">
-        <v>11.64400458925795</v>
+        <v>15.30426331172975</v>
       </c>
       <c r="F19">
-        <v>52.97618221892879</v>
+        <v>74.45651096990716</v>
       </c>
       <c r="G19">
-        <v>3.682598216771344</v>
+        <v>2.040061463449246</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.80669546554483</v>
+        <v>19.02239109711375</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.81714112314018</v>
+        <v>19.84948803782518</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.105594205165403</v>
+        <v>8.460504998753198</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.589398895108896</v>
+        <v>11.74453670207932</v>
       </c>
       <c r="E20">
-        <v>11.73498124103717</v>
+        <v>15.60915583108316</v>
       </c>
       <c r="F20">
-        <v>53.48064229201559</v>
+        <v>75.89179841146233</v>
       </c>
       <c r="G20">
-        <v>3.681025487374313</v>
+        <v>2.034294838527198</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.87419101665644</v>
+        <v>19.45478998527854</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.88327977239874</v>
+        <v>20.2891169845592</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.211679956835635</v>
+        <v>9.018104208821754</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.782701343622477</v>
+        <v>12.34369506927204</v>
       </c>
       <c r="E21">
-        <v>12.03855513752806</v>
+        <v>16.62363071192443</v>
       </c>
       <c r="F21">
-        <v>55.14833127842075</v>
+        <v>80.66052501546885</v>
       </c>
       <c r="G21">
-        <v>3.675894134293604</v>
+        <v>2.014750151431678</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.10710439626872</v>
+        <v>20.88978562225561</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.11066211115691</v>
+        <v>21.74423458532658</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.281886066224351</v>
+        <v>9.371022717637025</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.906927473946199</v>
+        <v>12.73477228750709</v>
       </c>
       <c r="E22">
-        <v>12.23508853701038</v>
+        <v>17.28088008643969</v>
       </c>
       <c r="F22">
-        <v>56.21655476998905</v>
+        <v>83.74465461817999</v>
       </c>
       <c r="G22">
-        <v>3.672653606608187</v>
+        <v>2.001781089143128</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.26357414829513</v>
+        <v>21.81791621372048</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.26287831143585</v>
+        <v>22.68207207565424</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.244342667731715</v>
+        <v>9.183679917634192</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.840825040810033</v>
+        <v>12.52601848720739</v>
       </c>
       <c r="E23">
-        <v>12.13038524687753</v>
+        <v>16.93050169981421</v>
       </c>
       <c r="F23">
-        <v>55.64849675192235</v>
+        <v>82.10102345360788</v>
       </c>
       <c r="G23">
-        <v>3.674372837770516</v>
+        <v>2.008725695847848</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.17969580296093</v>
+        <v>21.32319428256229</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.18132311641847</v>
+        <v>22.18250838930222</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.103876541421148</v>
+        <v>8.451189500801624</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.586205355933648</v>
+        <v>11.73472023978841</v>
       </c>
       <c r="E24">
-        <v>11.7299923119449</v>
+        <v>15.59245347630275</v>
       </c>
       <c r="F24">
-        <v>53.45303841283113</v>
+        <v>75.81319754357459</v>
       </c>
       <c r="G24">
-        <v>3.681111277333899</v>
+        <v>2.03461199297164</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.87046056831439</v>
+        <v>19.43111988239739</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.87962771390743</v>
+        <v>20.26506475780728</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.956791470951344</v>
+        <v>7.755856564616765</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.303189928266157</v>
+        <v>10.87301876681475</v>
       </c>
       <c r="E25">
-        <v>11.2921154313787</v>
+        <v>14.11486936966854</v>
       </c>
       <c r="F25">
-        <v>51.00117157631593</v>
+        <v>68.84727021040017</v>
       </c>
       <c r="G25">
-        <v>3.688870448299749</v>
+        <v>2.062114467396345</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.55723545469825</v>
+        <v>17.3269026810175</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.57123934598693</v>
+        <v>18.12073184031158</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.239120618522195</v>
+        <v>11.38732300894442</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.22690861892382</v>
+        <v>4.923079282763088</v>
       </c>
       <c r="E2">
-        <v>12.99028101133615</v>
+        <v>12.34532493173923</v>
       </c>
       <c r="F2">
-        <v>63.5265540285689</v>
+        <v>16.05140133778709</v>
       </c>
       <c r="G2">
-        <v>2.082377783398079</v>
+        <v>19.17436751453442</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.796710582253593</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.989132896840224</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.98379618749215</v>
       </c>
       <c r="K2">
-        <v>15.70367597873797</v>
+        <v>16.33718565466538</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.4587936386923</v>
+        <v>13.49030074382011</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.03739455879818</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.571960100895321</v>
+      </c>
+      <c r="P2">
+        <v>13.04412861278381</v>
+      </c>
+      <c r="Q2">
+        <v>12.70645187483246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.878425039214203</v>
+        <v>10.80143562210824</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.780483962396939</v>
+        <v>4.700265507956721</v>
       </c>
       <c r="E3">
-        <v>12.20355935452402</v>
+        <v>12.25039727023565</v>
       </c>
       <c r="F3">
-        <v>59.79216770860884</v>
+        <v>15.66228046429264</v>
       </c>
       <c r="G3">
-        <v>2.096266636760685</v>
+        <v>18.66624489505127</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.941364778653209</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.089268214338348</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.991598490179711</v>
       </c>
       <c r="K3">
-        <v>14.54975154959931</v>
+        <v>16.45184941447282</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.27362736831874</v>
+        <v>12.88289583277803</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.816123976603518</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.246518978157225</v>
+      </c>
+      <c r="P3">
+        <v>13.15478401497645</v>
+      </c>
+      <c r="Q3">
+        <v>12.6127643914724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.652308020871253</v>
+        <v>10.42123505887834</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.501986240780266</v>
+        <v>4.557534865740305</v>
       </c>
       <c r="E4">
-        <v>11.70833395809762</v>
+        <v>12.189860269606</v>
       </c>
       <c r="F4">
-        <v>57.43512628384659</v>
+        <v>15.4274409382414</v>
       </c>
       <c r="G4">
-        <v>2.104912215765096</v>
+        <v>18.35946083038917</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.033677459509052</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.153899557445066</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.999496642980312</v>
       </c>
       <c r="K4">
-        <v>13.8125239498908</v>
+        <v>16.5241043584552</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.51495274080005</v>
+        <v>12.49477533929533</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.677240545282506</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.040381731961602</v>
+      </c>
+      <c r="P4">
+        <v>13.22455765897521</v>
+      </c>
+      <c r="Q4">
+        <v>12.56130948162057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.559098553849248</v>
+        <v>10.25157189700448</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.38739146396051</v>
+        <v>4.498731512849765</v>
       </c>
       <c r="E5">
-        <v>11.50351428722625</v>
+        <v>12.16276372735709</v>
       </c>
       <c r="F5">
-        <v>56.45862756535792</v>
+        <v>15.32886880275733</v>
       </c>
       <c r="G5">
-        <v>2.108470311622247</v>
+        <v>18.22860505484346</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.07250813995659</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.183540944748756</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.002350858919399</v>
       </c>
       <c r="K5">
-        <v>13.50459374809314</v>
+        <v>16.5495552207126</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.19774178571289</v>
+        <v>12.3361734334625</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.622508407459224</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.952956070305882</v>
+      </c>
+      <c r="P5">
+        <v>13.2533876148756</v>
+      </c>
+      <c r="Q5">
+        <v>12.5389322123703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.543560342323755</v>
+        <v>10.21121975411075</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.368296748822619</v>
+        <v>4.489874942581834</v>
       </c>
       <c r="E6">
-        <v>11.46932474730994</v>
+        <v>12.15598503370701</v>
       </c>
       <c r="F6">
-        <v>56.29552350884233</v>
+        <v>15.30765436155321</v>
       </c>
       <c r="G6">
-        <v>2.109063387391469</v>
+        <v>18.19803214880679</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.079406263127685</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.191707269797003</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.001490556919974</v>
       </c>
       <c r="K6">
-        <v>13.45300118632534</v>
+        <v>16.54836900572916</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.14457630160013</v>
+        <v>12.31360853295563</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.616512033468695</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.935979248029383</v>
+      </c>
+      <c r="P6">
+        <v>13.25813066047246</v>
+      </c>
+      <c r="Q6">
+        <v>12.53174097192518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.651055123747001</v>
+        <v>10.38711694259404</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.500445234055077</v>
+        <v>4.559428344088069</v>
       </c>
       <c r="E7">
-        <v>11.70558377642826</v>
+        <v>12.18344956470847</v>
       </c>
       <c r="F7">
-        <v>57.4220212626279</v>
+        <v>15.41279641057811</v>
       </c>
       <c r="G7">
-        <v>2.104960053314006</v>
+        <v>18.33352319692311</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.035258216013665</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.162731390892063</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.995775421425081</v>
       </c>
       <c r="K7">
-        <v>13.80840183371304</v>
+        <v>16.5096225357832</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.51070761458639</v>
+        <v>12.50341177620729</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.684948527229061</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.032805992353905</v>
+      </c>
+      <c r="P7">
+        <v>13.2248194883669</v>
+      </c>
+      <c r="Q7">
+        <v>12.55130695299738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.115773065876437</v>
+        <v>11.15010139609006</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.0738857072401</v>
+        <v>4.850893389068723</v>
       </c>
       <c r="E8">
-        <v>12.7215600499691</v>
+        <v>12.30546432076762</v>
       </c>
       <c r="F8">
-        <v>62.25225674982325</v>
+        <v>15.89944497293683</v>
       </c>
       <c r="G8">
-        <v>2.087145615654937</v>
+        <v>18.96737243942357</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.847174487327422</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.033577838633598</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.9809130174773</v>
       </c>
       <c r="K8">
-        <v>15.31158213111566</v>
+        <v>16.35693478988045</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.05641521368587</v>
+        <v>13.29769218674392</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.97245159147049</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.453009550503026</v>
+      </c>
+      <c r="P8">
+        <v>13.08205855547789</v>
+      </c>
+      <c r="Q8">
+        <v>12.66026431596634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.986789233541566</v>
+        <v>12.53134235245278</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.16485398977936</v>
+        <v>5.369628771359586</v>
       </c>
       <c r="E9">
-        <v>14.61793240320804</v>
+        <v>12.53753832883627</v>
       </c>
       <c r="F9">
-        <v>71.22180271486357</v>
+        <v>16.90360433055952</v>
       </c>
       <c r="G9">
-        <v>2.052870295469094</v>
+        <v>20.28593198767519</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.50395423535008</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.79139359185577</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.983857214247382</v>
       </c>
       <c r="K9">
-        <v>18.04603603477438</v>
+        <v>16.09824874793356</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.85490952378824</v>
+        <v>14.71267750472919</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.495487860332144</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.23360846256357</v>
+      </c>
+      <c r="P9">
+        <v>12.81624269527237</v>
+      </c>
+      <c r="Q9">
+        <v>12.93984016469067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.653981829483316</v>
+        <v>13.3465284160138</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.94985248803708</v>
+        <v>5.734028759416556</v>
       </c>
       <c r="E10">
-        <v>15.9578739526174</v>
+        <v>12.66153896065531</v>
       </c>
       <c r="F10">
-        <v>77.53219011658844</v>
+        <v>17.58139097258139</v>
       </c>
       <c r="G10">
-        <v>2.027639452153589</v>
+        <v>21.14163360219622</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.296512096454976</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.638214979246989</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.981354688945302</v>
       </c>
       <c r="K10">
-        <v>19.94859388387894</v>
+        <v>15.85555207036604</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.79052653855508</v>
+        <v>15.70635419203226</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.760700645105618</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.67592147877939</v>
+      </c>
+      <c r="P10">
+        <v>12.63436391550423</v>
+      </c>
+      <c r="Q10">
+        <v>13.12207787161429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.98265461985315</v>
+        <v>12.96834372658719</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.30492350787504</v>
+        <v>6.008944576619924</v>
       </c>
       <c r="E11">
-        <v>16.5582679324907</v>
+        <v>12.65564661226022</v>
       </c>
       <c r="F11">
-        <v>80.35358476672026</v>
+        <v>17.31993178056007</v>
       </c>
       <c r="G11">
-        <v>2.016026468973265</v>
+        <v>20.50870694865073</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.162096073516574</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.628681367444688</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.80752527221836</v>
       </c>
       <c r="K11">
-        <v>20.79744580074483</v>
+        <v>15.29244138186977</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.65078408287861</v>
+        <v>16.41343489506184</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.01092291601847</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.08512812705878</v>
+      </c>
+      <c r="P11">
+        <v>12.61313279882172</v>
+      </c>
+      <c r="Q11">
+        <v>12.7672558159606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.105132385366796</v>
+        <v>12.51459247314994</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.43927261431456</v>
+        <v>6.164665190739375</v>
       </c>
       <c r="E12">
-        <v>16.78459995518507</v>
+        <v>12.94082717888596</v>
       </c>
       <c r="F12">
-        <v>81.41625173593913</v>
+        <v>16.96294884101271</v>
       </c>
       <c r="G12">
-        <v>2.011596690306409</v>
+        <v>19.80814207050968</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.437165017713847</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.633653595445469</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.662347273939303</v>
       </c>
       <c r="K12">
-        <v>21.11715090158799</v>
+        <v>14.93775623390617</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.97422398490479</v>
+        <v>16.79805872905263</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.327547081936602</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.503184919395554</v>
+      </c>
+      <c r="P12">
+        <v>12.65469711130568</v>
+      </c>
+      <c r="Q12">
+        <v>12.43287061289026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.078841111032478</v>
+        <v>11.92338667101767</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.41033946983997</v>
+        <v>6.2452041359358</v>
       </c>
       <c r="E13">
-        <v>16.73589527313405</v>
+        <v>13.42957119734121</v>
       </c>
       <c r="F13">
-        <v>81.18761687778451</v>
+        <v>16.48179119094594</v>
       </c>
       <c r="G13">
-        <v>2.012552383809356</v>
+        <v>18.95996404033454</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.799214003640745</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.663511580222577</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.523895036972257</v>
       </c>
       <c r="K13">
-        <v>21.0483621466796</v>
+        <v>14.70284350520205</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.9046579787948</v>
+        <v>16.98048831721678</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.664238100147819</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>8.875797912201143</v>
+      </c>
+      <c r="P13">
+        <v>12.74269912759742</v>
+      </c>
+      <c r="Q13">
+        <v>12.07514700599193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.992770080074477</v>
+        <v>11.43211638868902</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.31597742715699</v>
+        <v>6.269194862440577</v>
       </c>
       <c r="E14">
-        <v>16.57690694894896</v>
+        <v>13.88595503373432</v>
       </c>
       <c r="F14">
-        <v>80.44111686838455</v>
+        <v>16.08093792832661</v>
       </c>
       <c r="G14">
-        <v>2.015662755415593</v>
+        <v>18.2850881944678</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.778215444686543</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.698028009416247</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.429244901561495</v>
       </c>
       <c r="K14">
-        <v>20.82377874015235</v>
+        <v>14.599493873023</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.67743639488917</v>
+        <v>17.02170225986665</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.222932396052938</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.413430219439116</v>
+      </c>
+      <c r="P14">
+        <v>12.82653979777162</v>
+      </c>
+      <c r="Q14">
+        <v>11.81092101698088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.939793924679407</v>
+        <v>11.27207398234929</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.25817014764083</v>
+        <v>6.259781791340763</v>
       </c>
       <c r="E15">
-        <v>16.47939876746326</v>
+        <v>14.00333101838984</v>
       </c>
       <c r="F15">
-        <v>79.98316372758258</v>
+        <v>15.95284825918719</v>
       </c>
       <c r="G15">
-        <v>2.017563335366625</v>
+        <v>18.08177860244783</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.007213618266979</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.716121656293926</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.407005808680868</v>
       </c>
       <c r="K15">
-        <v>20.68601030283356</v>
+        <v>14.59155982102878</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.53797386317687</v>
+        <v>16.99176865387376</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.12061119706305</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.288737241820442</v>
+      </c>
+      <c r="P15">
+        <v>12.85455231924616</v>
+      </c>
+      <c r="Q15">
+        <v>11.73955887135143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.632219092112768</v>
+        <v>10.99687031769985</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.92662142455039</v>
+        <v>6.099925902861185</v>
       </c>
       <c r="E16">
-        <v>15.918475671657</v>
+        <v>13.8365383419715</v>
       </c>
       <c r="F16">
-        <v>77.34692127271687</v>
+        <v>15.72596694907278</v>
       </c>
       <c r="G16">
-        <v>2.028394630243008</v>
+        <v>17.82374224030795</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.812397091483629</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.781607050898163</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.431665778306597</v>
       </c>
       <c r="K16">
-        <v>19.89283800164339</v>
+        <v>14.73586150284886</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.73394715082799</v>
+        <v>16.56221948989702</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.121495058531179</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.201642656906447</v>
+      </c>
+      <c r="P16">
+        <v>12.90180507539089</v>
+      </c>
+      <c r="Q16">
+        <v>11.71747874807067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.439890257042517</v>
+        <v>11.05479389437327</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.72282186433172</v>
+        <v>5.961628010300816</v>
       </c>
       <c r="E17">
-        <v>15.57220513801891</v>
+        <v>13.44201482609887</v>
       </c>
       <c r="F17">
-        <v>75.71790539363789</v>
+        <v>15.77297429148511</v>
       </c>
       <c r="G17">
-        <v>2.03499628466857</v>
+        <v>17.99903664195945</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.112467295318257</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.814122427892067</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.501563473714675</v>
       </c>
       <c r="K17">
-        <v>19.40242200137102</v>
+        <v>14.89604887537166</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.23590145096837</v>
+        <v>16.20377314821165</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.353657628963028</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.384367704163811</v>
+      </c>
+      <c r="P17">
+        <v>12.8947988903162</v>
+      </c>
+      <c r="Q17">
+        <v>11.84409846346449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.332129374730128</v>
+        <v>11.43138073049005</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.60539700806919</v>
+        <v>5.826330796048393</v>
       </c>
       <c r="E18">
-        <v>15.37215586575428</v>
+        <v>12.9222009793171</v>
       </c>
       <c r="F18">
-        <v>74.77620340834633</v>
+        <v>16.06601847771962</v>
       </c>
       <c r="G18">
-        <v>2.038781530029064</v>
+        <v>18.57715354131525</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.938325324496566</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.810806550562848</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.619337000699154</v>
       </c>
       <c r="K18">
-        <v>19.11873676117759</v>
+        <v>15.12220783177812</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.94749015992998</v>
+        <v>15.8638434704234</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>4.839098188545953</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>8.831936701287157</v>
+      </c>
+      <c r="P18">
+        <v>12.8477092580396</v>
+      </c>
+      <c r="Q18">
+        <v>12.11591466880295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.301100800695632</v>
+        <v>11.98137996395021</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.56559904915415</v>
+        <v>5.710240686197109</v>
       </c>
       <c r="E19">
-        <v>15.30426331172975</v>
+        <v>12.55916444799238</v>
       </c>
       <c r="F19">
-        <v>74.45651096990716</v>
+        <v>16.50516514815429</v>
       </c>
       <c r="G19">
-        <v>2.040061463449246</v>
+        <v>19.38386803775794</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.603399723969039</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.792556100628265</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.759342326314249</v>
       </c>
       <c r="K19">
-        <v>19.02239109711375</v>
+        <v>15.41036670553463</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.84948803782518</v>
+        <v>15.58857681771575</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.53488373887259</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.455833894058047</v>
+      </c>
+      <c r="P19">
+        <v>12.78966765217027</v>
+      </c>
+      <c r="Q19">
+        <v>12.46429373408274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.460504998753198</v>
+        <v>13.05565260545162</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.74453670207932</v>
+        <v>5.648278568146686</v>
       </c>
       <c r="E20">
-        <v>15.60915583108316</v>
+        <v>12.61330795009864</v>
       </c>
       <c r="F20">
-        <v>75.89179841146233</v>
+        <v>17.36360700952055</v>
       </c>
       <c r="G20">
-        <v>2.034294838527198</v>
+        <v>20.84551510095519</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.352314060537096</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.704244981222519</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.96873248080854</v>
       </c>
       <c r="K20">
-        <v>19.45478998527854</v>
+        <v>15.87238650296253</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.2891169845592</v>
+        <v>15.48116738026981</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.709584823176622</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.5408923140982</v>
+      </c>
+      <c r="P20">
+        <v>12.6837728045529</v>
+      </c>
+      <c r="Q20">
+        <v>13.04165236507083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.018104208821754</v>
+        <v>13.7925082782471</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.34369506927204</v>
+        <v>5.895758790100609</v>
       </c>
       <c r="E21">
-        <v>16.62363071192443</v>
+        <v>12.76219799770303</v>
       </c>
       <c r="F21">
-        <v>80.66052501546885</v>
+        <v>17.99309564064814</v>
       </c>
       <c r="G21">
-        <v>2.014750151431678</v>
+        <v>21.69850298089249</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.155131893727777</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.577496348277698</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.005122430169504</v>
       </c>
       <c r="K21">
-        <v>20.88978562225561</v>
+        <v>15.78233779263316</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.74423458532658</v>
+        <v>16.16362868042825</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.061721998907752</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.01238446476375</v>
+      </c>
+      <c r="P21">
+        <v>12.54042320070067</v>
+      </c>
+      <c r="Q21">
+        <v>13.27451298834314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.371022717637025</v>
+        <v>14.24280126214171</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.73477228750709</v>
+        <v>6.055594645399763</v>
       </c>
       <c r="E22">
-        <v>17.28088008643969</v>
+        <v>12.84695147972202</v>
       </c>
       <c r="F22">
-        <v>83.74465461817999</v>
+        <v>18.38577069239683</v>
       </c>
       <c r="G22">
-        <v>2.001781089143128</v>
+        <v>22.2220750691893</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.041474525926586</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.489203178613268</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.026898141601627</v>
       </c>
       <c r="K22">
-        <v>21.81791621372048</v>
+        <v>15.71603440776496</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.68207207565424</v>
+        <v>16.59860181380176</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.225618009662335</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.27257315693746</v>
+      </c>
+      <c r="P22">
+        <v>12.44934457095444</v>
+      </c>
+      <c r="Q22">
+        <v>13.41847070001082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.183679917634192</v>
+        <v>14.03287055647694</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.52601848720739</v>
+        <v>5.968256000853793</v>
       </c>
       <c r="E23">
-        <v>16.93050169981421</v>
+        <v>12.80742781144049</v>
       </c>
       <c r="F23">
-        <v>82.10102345360788</v>
+        <v>18.18938866507939</v>
       </c>
       <c r="G23">
-        <v>2.008725695847848</v>
+        <v>21.96623381225952</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.100954315912105</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.525834565546365</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.019173933316543</v>
       </c>
       <c r="K23">
-        <v>21.32319428256229</v>
+        <v>15.7680163737863</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.18250838930222</v>
+        <v>16.35754792421701</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.130399394818006</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.14063304467262</v>
+      </c>
+      <c r="P23">
+        <v>12.49682454398931</v>
+      </c>
+      <c r="Q23">
+        <v>13.35153790023858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.451189500801624</v>
+        <v>13.15403679026761</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.73472023978841</v>
+        <v>5.629569359134577</v>
       </c>
       <c r="E24">
-        <v>15.59245347630275</v>
+        <v>12.64633828825604</v>
       </c>
       <c r="F24">
-        <v>75.81319754357459</v>
+        <v>17.4254806929121</v>
       </c>
       <c r="G24">
-        <v>2.03461199297164</v>
+        <v>20.96136040406348</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.333149250365377</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.685875900487937</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.990210051786753</v>
       </c>
       <c r="K24">
-        <v>19.43111988239739</v>
+        <v>15.94222914175488</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.26506475780728</v>
+        <v>15.42926576436363</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.773766574958226</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.61553062561581</v>
+      </c>
+      <c r="P24">
+        <v>12.68150847612041</v>
+      </c>
+      <c r="Q24">
+        <v>13.09363195028573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.755856564616765</v>
+        <v>12.12657247957173</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.87301876681475</v>
+        <v>5.238981753054841</v>
       </c>
       <c r="E25">
-        <v>14.11486936966854</v>
+        <v>12.46694813720969</v>
       </c>
       <c r="F25">
-        <v>68.84727021040017</v>
+        <v>16.60771272604471</v>
       </c>
       <c r="G25">
-        <v>2.062114467396345</v>
+        <v>19.88669489799021</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.595562207599399</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.869045954623531</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.973599960830698</v>
       </c>
       <c r="K25">
-        <v>17.3269026810175</v>
+        <v>16.14059416494947</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.12073184031158</v>
+        <v>14.36118195904698</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.370894890802882</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.01834876839125</v>
+      </c>
+      <c r="P25">
+        <v>12.88738081572063</v>
+      </c>
+      <c r="Q25">
+        <v>12.84208111203341</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.38732300894442</v>
+        <v>10.80717889288793</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.923079282763088</v>
+        <v>4.945534121495925</v>
       </c>
       <c r="E2">
-        <v>12.34532493173923</v>
+        <v>11.78975093756749</v>
       </c>
       <c r="F2">
-        <v>16.05140133778709</v>
+        <v>15.913292978055</v>
       </c>
       <c r="G2">
-        <v>19.17436751453442</v>
+        <v>18.22301537042545</v>
       </c>
       <c r="H2">
-        <v>2.796710582253593</v>
+        <v>2.622202018824138</v>
       </c>
       <c r="I2">
-        <v>3.989132896840224</v>
+        <v>3.722163308160622</v>
       </c>
       <c r="J2">
-        <v>7.98379618749215</v>
+        <v>8.535502072939883</v>
       </c>
       <c r="K2">
-        <v>16.33718565466538</v>
+        <v>15.56443821049865</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.20475395433265</v>
       </c>
       <c r="M2">
-        <v>13.49030074382011</v>
+        <v>10.74498086643715</v>
       </c>
       <c r="N2">
-        <v>6.03739455879818</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.571960100895321</v>
+        <v>13.45468708918562</v>
       </c>
       <c r="P2">
-        <v>13.04412861278381</v>
+        <v>6.317028017669676</v>
       </c>
       <c r="Q2">
-        <v>12.70645187483246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.447419809687545</v>
+      </c>
+      <c r="R2">
+        <v>12.87667236519395</v>
+      </c>
+      <c r="S2">
+        <v>12.59910078783559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.80143562210824</v>
+        <v>10.2616285099237</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.700265507956721</v>
+        <v>4.714408249096429</v>
       </c>
       <c r="E3">
-        <v>12.25039727023565</v>
+        <v>11.70052798262653</v>
       </c>
       <c r="F3">
-        <v>15.66228046429264</v>
+        <v>15.54697320292085</v>
       </c>
       <c r="G3">
-        <v>18.66624489505127</v>
+        <v>17.73837250728764</v>
       </c>
       <c r="H3">
-        <v>2.941364778653209</v>
+        <v>2.757405828059363</v>
       </c>
       <c r="I3">
-        <v>4.089268214338348</v>
+        <v>3.808752895574816</v>
       </c>
       <c r="J3">
-        <v>7.991598490179711</v>
+        <v>8.523667479719109</v>
       </c>
       <c r="K3">
-        <v>16.45184941447282</v>
+        <v>15.69142983721432</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.35727405236546</v>
       </c>
       <c r="M3">
-        <v>12.88289583277803</v>
+        <v>10.83126864388732</v>
       </c>
       <c r="N3">
-        <v>5.816123976603518</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.246518978157225</v>
+        <v>12.81779551935625</v>
       </c>
       <c r="P3">
-        <v>13.15478401497645</v>
+        <v>6.091496057028637</v>
       </c>
       <c r="Q3">
-        <v>12.6127643914724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.130729556751865</v>
+      </c>
+      <c r="R3">
+        <v>12.97706578090857</v>
+      </c>
+      <c r="S3">
+        <v>12.52041763344969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.42123505887834</v>
+        <v>9.905745327228766</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.557534865740305</v>
+        <v>4.566325686127056</v>
       </c>
       <c r="E4">
-        <v>12.189860269606</v>
+        <v>11.64384081655123</v>
       </c>
       <c r="F4">
-        <v>15.4274409382414</v>
+        <v>15.32575120859954</v>
       </c>
       <c r="G4">
-        <v>18.35946083038917</v>
+        <v>17.44807023619271</v>
       </c>
       <c r="H4">
-        <v>3.033677459509052</v>
+        <v>2.843702002134776</v>
       </c>
       <c r="I4">
-        <v>4.153899557445066</v>
+        <v>3.864934775210313</v>
       </c>
       <c r="J4">
-        <v>7.999496642980312</v>
+        <v>8.517884848240906</v>
       </c>
       <c r="K4">
-        <v>16.5241043584552</v>
+        <v>15.77062924630037</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.45501108245397</v>
       </c>
       <c r="M4">
-        <v>12.49477533929533</v>
+        <v>10.89527088926095</v>
       </c>
       <c r="N4">
-        <v>5.677240545282506</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.040381731961602</v>
+        <v>12.41069111522568</v>
       </c>
       <c r="P4">
-        <v>13.22455765897521</v>
+        <v>5.950563860947719</v>
       </c>
       <c r="Q4">
-        <v>12.56130948162057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.929838894213153</v>
+      </c>
+      <c r="R4">
+        <v>13.04083952633791</v>
+      </c>
+      <c r="S4">
+        <v>12.47762308107309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.25157189700448</v>
+        <v>9.745997452414487</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.498731512849765</v>
+        <v>4.50524833150953</v>
       </c>
       <c r="E5">
-        <v>12.16276372735709</v>
+        <v>11.61861064886034</v>
       </c>
       <c r="F5">
-        <v>15.32886880275733</v>
+        <v>15.23279534917726</v>
       </c>
       <c r="G5">
-        <v>18.22860505484346</v>
+        <v>17.32455584227259</v>
       </c>
       <c r="H5">
-        <v>3.07250813995659</v>
+        <v>2.880011645188389</v>
       </c>
       <c r="I5">
-        <v>4.183540944748756</v>
+        <v>3.891521915534156</v>
       </c>
       <c r="J5">
-        <v>8.002350858919399</v>
+        <v>8.514843923374647</v>
       </c>
       <c r="K5">
-        <v>16.5495552207126</v>
+        <v>15.79903210656388</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.49114555398396</v>
       </c>
       <c r="M5">
-        <v>12.3361734334625</v>
+        <v>10.92249499666107</v>
       </c>
       <c r="N5">
-        <v>5.622508407459224</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.952956070305882</v>
+        <v>12.24407295528537</v>
       </c>
       <c r="P5">
-        <v>13.2533876148756</v>
+        <v>5.894956870093435</v>
       </c>
       <c r="Q5">
-        <v>12.5389322123703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.844587598930765</v>
+      </c>
+      <c r="R5">
+        <v>13.06736112087855</v>
+      </c>
+      <c r="S5">
+        <v>12.45876778594597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.21121975411075</v>
+        <v>9.707494005388117</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.489874942581834</v>
+        <v>4.49596891707936</v>
       </c>
       <c r="E6">
-        <v>12.15598503370701</v>
+        <v>11.61241050835541</v>
       </c>
       <c r="F6">
-        <v>15.30765436155321</v>
+        <v>15.21273017034672</v>
       </c>
       <c r="G6">
-        <v>18.19803214880679</v>
+        <v>17.29539591161861</v>
       </c>
       <c r="H6">
-        <v>3.079406263127685</v>
+        <v>2.886469839490161</v>
       </c>
       <c r="I6">
-        <v>4.191707269797003</v>
+        <v>3.899736618049134</v>
       </c>
       <c r="J6">
-        <v>8.001490556919974</v>
+        <v>8.513073190988884</v>
       </c>
       <c r="K6">
-        <v>16.54836900572916</v>
+        <v>15.79866753310095</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.49146942823906</v>
       </c>
       <c r="M6">
-        <v>12.31360853295563</v>
+        <v>10.92520427259532</v>
       </c>
       <c r="N6">
-        <v>5.616512033468695</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.935979248029383</v>
+        <v>12.22007156500555</v>
       </c>
       <c r="P6">
-        <v>13.25813066047246</v>
+        <v>5.888587718615664</v>
       </c>
       <c r="Q6">
-        <v>12.53174097192518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.828062386101013</v>
+      </c>
+      <c r="R6">
+        <v>13.07180434194022</v>
+      </c>
+      <c r="S6">
+        <v>12.45231991928219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.38711694259404</v>
+        <v>9.873456710794494</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.559428344088069</v>
+        <v>4.571025910952335</v>
       </c>
       <c r="E7">
-        <v>12.18344956470847</v>
+        <v>11.63819636724272</v>
       </c>
       <c r="F7">
-        <v>15.41279641057811</v>
+        <v>15.29887818639042</v>
       </c>
       <c r="G7">
-        <v>18.33352319692311</v>
+        <v>17.51565438138551</v>
       </c>
       <c r="H7">
-        <v>3.035258216013665</v>
+        <v>2.845495051744034</v>
       </c>
       <c r="I7">
-        <v>4.162731390892063</v>
+        <v>3.875379953524666</v>
       </c>
       <c r="J7">
-        <v>7.995775421425081</v>
+        <v>8.478568035328529</v>
       </c>
       <c r="K7">
-        <v>16.5096225357832</v>
+        <v>15.75507043959005</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.43811377711021</v>
       </c>
       <c r="M7">
-        <v>12.50341177620729</v>
+        <v>10.88884566070381</v>
       </c>
       <c r="N7">
-        <v>5.684948527229061</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.032805992353905</v>
+        <v>12.41355470508455</v>
       </c>
       <c r="P7">
-        <v>13.2248194883669</v>
+        <v>5.956247444329835</v>
       </c>
       <c r="Q7">
-        <v>12.55130695299738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.922080237517925</v>
+      </c>
+      <c r="R7">
+        <v>13.04147583163069</v>
+      </c>
+      <c r="S7">
+        <v>12.45902101621466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.15010139609006</v>
+        <v>10.58822415694015</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.850893389068723</v>
+        <v>4.879722300204307</v>
       </c>
       <c r="E8">
-        <v>12.30546432076762</v>
+        <v>11.75291263760234</v>
       </c>
       <c r="F8">
-        <v>15.89944497293683</v>
+        <v>15.72829363281862</v>
       </c>
       <c r="G8">
-        <v>18.96737243942357</v>
+        <v>18.32429608155815</v>
       </c>
       <c r="H8">
-        <v>2.847174487327422</v>
+        <v>2.670298533103289</v>
       </c>
       <c r="I8">
-        <v>4.033577838633598</v>
+        <v>3.764413907112823</v>
       </c>
       <c r="J8">
-        <v>7.9809130174773</v>
+        <v>8.409706341281991</v>
       </c>
       <c r="K8">
-        <v>16.35693478988045</v>
+        <v>15.58340827846962</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.23232391357763</v>
       </c>
       <c r="M8">
-        <v>13.29769218674392</v>
+        <v>10.75914477376839</v>
       </c>
       <c r="N8">
-        <v>5.97245159147049</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.453009550503026</v>
+        <v>13.23473143282386</v>
       </c>
       <c r="P8">
-        <v>13.08205855547789</v>
+        <v>6.245341221465384</v>
       </c>
       <c r="Q8">
-        <v>12.66026431596634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.330358124586672</v>
+      </c>
+      <c r="R8">
+        <v>12.91222005763701</v>
+      </c>
+      <c r="S8">
+        <v>12.52881221048351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.53134235245278</v>
+        <v>11.86795334455066</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.369628771359586</v>
+        <v>5.419440798372819</v>
       </c>
       <c r="E9">
-        <v>12.53753832883627</v>
+        <v>11.97183886072577</v>
       </c>
       <c r="F9">
-        <v>16.90360433055952</v>
+        <v>16.66480227393168</v>
       </c>
       <c r="G9">
-        <v>20.28593198767519</v>
+        <v>19.65495090301405</v>
       </c>
       <c r="H9">
-        <v>2.50395423535008</v>
+        <v>2.34970999781327</v>
       </c>
       <c r="I9">
-        <v>3.79139359185577</v>
+        <v>3.553840407887934</v>
       </c>
       <c r="J9">
-        <v>7.983857214247382</v>
+        <v>8.420151139673287</v>
       </c>
       <c r="K9">
-        <v>16.09824874793356</v>
+        <v>15.28773051235022</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.89264031617591</v>
       </c>
       <c r="M9">
-        <v>14.71267750472919</v>
+        <v>10.60969946014924</v>
       </c>
       <c r="N9">
-        <v>6.495487860332144</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.23360846256357</v>
+        <v>14.7152887360484</v>
       </c>
       <c r="P9">
-        <v>12.81624269527237</v>
+        <v>6.781592640749384</v>
       </c>
       <c r="Q9">
-        <v>12.93984016469067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.08814751296346</v>
+      </c>
+      <c r="R9">
+        <v>12.67430672159441</v>
+      </c>
+      <c r="S9">
+        <v>12.76003072050286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.3465284160138</v>
+        <v>12.62748109611838</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.734028759416556</v>
+        <v>5.810965985038408</v>
       </c>
       <c r="E10">
-        <v>12.66153896065531</v>
+        <v>12.10047652857968</v>
       </c>
       <c r="F10">
-        <v>17.58139097258139</v>
+        <v>17.23229119087931</v>
       </c>
       <c r="G10">
-        <v>21.14163360219622</v>
+        <v>21.01118446851104</v>
       </c>
       <c r="H10">
-        <v>2.296512096454976</v>
+        <v>2.159409946858418</v>
       </c>
       <c r="I10">
-        <v>3.638214979246989</v>
+        <v>3.424443426330195</v>
       </c>
       <c r="J10">
-        <v>7.981354688945302</v>
+        <v>8.222440698107089</v>
       </c>
       <c r="K10">
-        <v>15.85555207036604</v>
+        <v>15.01618680444894</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.62032448691667</v>
       </c>
       <c r="M10">
-        <v>15.70635419203226</v>
+        <v>10.50551139962439</v>
       </c>
       <c r="N10">
-        <v>6.760700645105618</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.67592147877939</v>
+        <v>15.72176713605257</v>
       </c>
       <c r="P10">
-        <v>12.63436391550423</v>
+        <v>7.048693099268622</v>
       </c>
       <c r="Q10">
-        <v>13.12207787161429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.51405212214258</v>
+      </c>
+      <c r="R10">
+        <v>12.5192034180352</v>
+      </c>
+      <c r="S10">
+        <v>12.85905198960176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.96834372658719</v>
+        <v>12.3410656539277</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.008944576619924</v>
+        <v>6.112937049777627</v>
       </c>
       <c r="E11">
-        <v>12.65564661226022</v>
+        <v>12.17928535027688</v>
       </c>
       <c r="F11">
-        <v>17.31993178056007</v>
+        <v>16.86010309081777</v>
       </c>
       <c r="G11">
-        <v>20.50870694865073</v>
+        <v>21.49837250057297</v>
       </c>
       <c r="H11">
-        <v>3.162096073516574</v>
+        <v>3.066301733622165</v>
       </c>
       <c r="I11">
-        <v>3.628681367444688</v>
+        <v>3.424059039818839</v>
       </c>
       <c r="J11">
-        <v>7.80752527221836</v>
+        <v>7.700065888995127</v>
       </c>
       <c r="K11">
-        <v>15.29244138186977</v>
+        <v>14.52704270530334</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.25835400400725</v>
       </c>
       <c r="M11">
-        <v>16.41343489506184</v>
+        <v>10.15100226391592</v>
       </c>
       <c r="N11">
-        <v>6.01092291601847</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.08512812705878</v>
+        <v>16.35158984284082</v>
       </c>
       <c r="P11">
-        <v>12.61313279882172</v>
+        <v>6.267280924278633</v>
       </c>
       <c r="Q11">
-        <v>12.7672558159606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>9.934655605271908</v>
+      </c>
+      <c r="R11">
+        <v>12.53020619726634</v>
+      </c>
+      <c r="S11">
+        <v>12.42445274942316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.51459247314994</v>
+        <v>11.97328137821152</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.164665190739375</v>
+        <v>6.277437362737606</v>
       </c>
       <c r="E12">
-        <v>12.94082717888596</v>
+        <v>12.50421854682909</v>
       </c>
       <c r="F12">
-        <v>16.96294884101271</v>
+        <v>16.47360080551618</v>
       </c>
       <c r="G12">
-        <v>19.80814207050968</v>
+        <v>21.35245976637122</v>
       </c>
       <c r="H12">
-        <v>4.437165017713847</v>
+        <v>4.368660802657069</v>
       </c>
       <c r="I12">
-        <v>3.633653595445469</v>
+        <v>3.42913717502907</v>
       </c>
       <c r="J12">
-        <v>7.662347273939303</v>
+        <v>7.440049203341441</v>
       </c>
       <c r="K12">
-        <v>14.93775623390617</v>
+        <v>14.24051287131018</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.07415243763318</v>
       </c>
       <c r="M12">
-        <v>16.79805872905263</v>
+        <v>9.911858435695148</v>
       </c>
       <c r="N12">
-        <v>5.327547081936602</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.503184919395554</v>
+        <v>16.68284033008041</v>
       </c>
       <c r="P12">
-        <v>12.65469711130568</v>
+        <v>5.564901034496466</v>
       </c>
       <c r="Q12">
-        <v>12.43287061289026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.366686374919928</v>
+      </c>
+      <c r="R12">
+        <v>12.58848601677412</v>
+      </c>
+      <c r="S12">
+        <v>12.07255787046266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.92338667101767</v>
+        <v>11.46990673619259</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.2452041359358</v>
+        <v>6.346329020864179</v>
       </c>
       <c r="E13">
-        <v>13.42957119734121</v>
+        <v>13.0147300422022</v>
       </c>
       <c r="F13">
-        <v>16.48179119094594</v>
+        <v>16.05457037675824</v>
       </c>
       <c r="G13">
-        <v>18.95996404033454</v>
+        <v>20.44932675092864</v>
       </c>
       <c r="H13">
-        <v>5.799214003640745</v>
+        <v>5.74454625945743</v>
       </c>
       <c r="I13">
-        <v>3.663511580222577</v>
+        <v>3.454271104376477</v>
       </c>
       <c r="J13">
-        <v>7.523895036972257</v>
+        <v>7.388567435145826</v>
       </c>
       <c r="K13">
-        <v>14.70284350520205</v>
+        <v>14.07074774454816</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.97723772908707</v>
       </c>
       <c r="M13">
-        <v>16.98048831721678</v>
+        <v>9.746173692984673</v>
       </c>
       <c r="N13">
-        <v>4.664238100147819</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>8.875797912201143</v>
+        <v>16.83769210715497</v>
       </c>
       <c r="P13">
-        <v>12.74269912759742</v>
+        <v>4.894724691357142</v>
       </c>
       <c r="Q13">
-        <v>12.07514700599193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>8.75709370845029</v>
+      </c>
+      <c r="R13">
+        <v>12.67717831925779</v>
+      </c>
+      <c r="S13">
+        <v>11.76675666166177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.43211638868902</v>
+        <v>11.04191341178074</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.269194862440577</v>
+        <v>6.352794342640554</v>
       </c>
       <c r="E14">
-        <v>13.88595503373432</v>
+        <v>13.48027229073167</v>
       </c>
       <c r="F14">
-        <v>16.08093792832661</v>
+        <v>15.73785439653217</v>
       </c>
       <c r="G14">
-        <v>18.2850881944678</v>
+        <v>19.46715471227847</v>
       </c>
       <c r="H14">
-        <v>6.778215444686543</v>
+        <v>6.729345817173319</v>
       </c>
       <c r="I14">
-        <v>3.698028009416247</v>
+        <v>3.483863461302001</v>
       </c>
       <c r="J14">
-        <v>7.429244901561495</v>
+        <v>7.434658885956172</v>
       </c>
       <c r="K14">
-        <v>14.599493873023</v>
+        <v>14.00564741060081</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.94236420327869</v>
       </c>
       <c r="M14">
-        <v>17.02170225986665</v>
+        <v>9.671471767637449</v>
       </c>
       <c r="N14">
-        <v>4.222932396052938</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.413430219439116</v>
+        <v>16.87063961906818</v>
       </c>
       <c r="P14">
-        <v>12.82653979777162</v>
+        <v>4.455231068562913</v>
       </c>
       <c r="Q14">
-        <v>11.81092101698088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.308502615658128</v>
+      </c>
+      <c r="R14">
+        <v>12.75251230419411</v>
+      </c>
+      <c r="S14">
+        <v>11.56844793626824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.27207398234929</v>
+        <v>10.89808010473352</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.259781791340763</v>
+        <v>6.335070710563846</v>
       </c>
       <c r="E15">
-        <v>14.00333101838984</v>
+        <v>13.60114445039943</v>
       </c>
       <c r="F15">
-        <v>15.95284825918719</v>
+        <v>15.64764305144979</v>
       </c>
       <c r="G15">
-        <v>18.08177860244783</v>
+        <v>19.07400526968617</v>
       </c>
       <c r="H15">
-        <v>7.007213618266979</v>
+        <v>6.958975799680061</v>
       </c>
       <c r="I15">
-        <v>3.716121656293926</v>
+        <v>3.500388693379682</v>
       </c>
       <c r="J15">
-        <v>7.407005808680868</v>
+        <v>7.481948029198953</v>
       </c>
       <c r="K15">
-        <v>14.59155982102878</v>
+        <v>14.00575607028393</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.94162691046937</v>
       </c>
       <c r="M15">
-        <v>16.99176865387376</v>
+        <v>9.666378374158375</v>
       </c>
       <c r="N15">
-        <v>4.12061119706305</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.288737241820442</v>
+        <v>16.84348593361476</v>
       </c>
       <c r="P15">
-        <v>12.85455231924616</v>
+        <v>4.355075254825484</v>
       </c>
       <c r="Q15">
-        <v>11.73955887135143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.187881900198496</v>
+      </c>
+      <c r="R15">
+        <v>12.77521549295224</v>
+      </c>
+      <c r="S15">
+        <v>11.52567183295885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.99687031769985</v>
+        <v>10.62577488457626</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.099925902861185</v>
+        <v>6.142171770751352</v>
       </c>
       <c r="E16">
-        <v>13.8365383419715</v>
+        <v>13.45182677635322</v>
       </c>
       <c r="F16">
-        <v>15.72596694907278</v>
+        <v>15.56164018387192</v>
       </c>
       <c r="G16">
-        <v>17.82374224030795</v>
+        <v>17.867313143158</v>
       </c>
       <c r="H16">
-        <v>6.812397091483629</v>
+        <v>6.757806549614526</v>
       </c>
       <c r="I16">
-        <v>3.781607050898163</v>
+        <v>3.556266280358863</v>
       </c>
       <c r="J16">
-        <v>7.431665778306597</v>
+        <v>7.813001317013864</v>
       </c>
       <c r="K16">
-        <v>14.73586150284886</v>
+        <v>14.14562059117878</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.01091198501452</v>
       </c>
       <c r="M16">
-        <v>16.56221948989702</v>
+        <v>9.780166564609868</v>
       </c>
       <c r="N16">
-        <v>4.121495058531179</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.201642656906447</v>
+        <v>16.45462151885825</v>
       </c>
       <c r="P16">
-        <v>12.90180507539089</v>
+        <v>4.367620485670051</v>
       </c>
       <c r="Q16">
-        <v>11.71747874807067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.106906622713513</v>
+      </c>
+      <c r="R16">
+        <v>12.79811638910875</v>
+      </c>
+      <c r="S16">
+        <v>11.6050138099356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.05479389437327</v>
+        <v>10.65249852661912</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.961628010300816</v>
+        <v>5.992265245767596</v>
       </c>
       <c r="E17">
-        <v>13.44201482609887</v>
+        <v>13.0583172598019</v>
       </c>
       <c r="F17">
-        <v>15.77297429148511</v>
+        <v>15.65323194560844</v>
       </c>
       <c r="G17">
-        <v>17.99903664195945</v>
+        <v>17.61111526256456</v>
       </c>
       <c r="H17">
-        <v>6.112467295318257</v>
+        <v>6.048656956087119</v>
       </c>
       <c r="I17">
-        <v>3.814122427892067</v>
+        <v>3.584311831643975</v>
       </c>
       <c r="J17">
-        <v>7.501563473714675</v>
+        <v>8.012882709860115</v>
       </c>
       <c r="K17">
-        <v>14.89604887537166</v>
+        <v>14.28739980925811</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.0961882633697</v>
       </c>
       <c r="M17">
-        <v>16.20377314821165</v>
+        <v>9.896516796525376</v>
       </c>
       <c r="N17">
-        <v>4.353657628963028</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.384367704163811</v>
+        <v>16.12476632229378</v>
       </c>
       <c r="P17">
-        <v>12.8947988903162</v>
+        <v>4.605738497075614</v>
       </c>
       <c r="Q17">
-        <v>11.84409846346449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.286908281402717</v>
+      </c>
+      <c r="R17">
+        <v>12.78102825408015</v>
+      </c>
+      <c r="S17">
+        <v>11.76179472198963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.43138073049005</v>
+        <v>10.96282129619462</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.826330796048393</v>
+        <v>5.857093469303304</v>
       </c>
       <c r="E18">
-        <v>12.9222009793171</v>
+        <v>12.52030491990241</v>
       </c>
       <c r="F18">
-        <v>16.06601847771962</v>
+        <v>15.93860334131876</v>
       </c>
       <c r="G18">
-        <v>18.57715354131525</v>
+        <v>17.97041415886531</v>
       </c>
       <c r="H18">
-        <v>4.938325324496566</v>
+        <v>4.858585083100234</v>
       </c>
       <c r="I18">
-        <v>3.810806550562848</v>
+        <v>3.578817851140164</v>
       </c>
       <c r="J18">
-        <v>7.619337000699154</v>
+        <v>8.173690859836649</v>
       </c>
       <c r="K18">
-        <v>15.12220783177812</v>
+        <v>14.47673348336385</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.23104316246489</v>
       </c>
       <c r="M18">
-        <v>15.8638434704234</v>
+        <v>10.04391542564813</v>
       </c>
       <c r="N18">
-        <v>4.839098188545953</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>8.831936701287157</v>
+        <v>15.81586892863257</v>
       </c>
       <c r="P18">
-        <v>12.8477092580396</v>
+        <v>5.09772656388165</v>
       </c>
       <c r="Q18">
-        <v>12.11591466880295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>8.724028982495399</v>
+      </c>
+      <c r="R18">
+        <v>12.73018406060552</v>
+      </c>
+      <c r="S18">
+        <v>12.02553706864232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.98137996395021</v>
+        <v>11.42444937981979</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.710240686197109</v>
+        <v>5.747726374390491</v>
       </c>
       <c r="E19">
-        <v>12.55916444799238</v>
+        <v>12.11155779792082</v>
       </c>
       <c r="F19">
-        <v>16.50516514815429</v>
+        <v>16.34096206188086</v>
       </c>
       <c r="G19">
-        <v>19.38386803775794</v>
+        <v>18.66874899642405</v>
       </c>
       <c r="H19">
-        <v>3.603399723969039</v>
+        <v>3.497056443993471</v>
       </c>
       <c r="I19">
-        <v>3.792556100628265</v>
+        <v>3.56413211732137</v>
       </c>
       <c r="J19">
-        <v>7.759342326314249</v>
+        <v>8.309732662856211</v>
       </c>
       <c r="K19">
-        <v>15.41036670553463</v>
+        <v>14.7087808639718</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.4083985592589</v>
       </c>
       <c r="M19">
-        <v>15.58857681771575</v>
+        <v>10.21980943677042</v>
       </c>
       <c r="N19">
-        <v>5.53488373887259</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.455833894058047</v>
+        <v>15.57403940902075</v>
       </c>
       <c r="P19">
-        <v>12.78966765217027</v>
+        <v>5.803829101330315</v>
       </c>
       <c r="Q19">
-        <v>12.46429373408274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.331946132967497</v>
+      </c>
+      <c r="R19">
+        <v>12.66953482745686</v>
+      </c>
+      <c r="S19">
+        <v>12.34436251361261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.05565260545162</v>
+        <v>12.35151638087124</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.648278568146686</v>
+        <v>5.70900889099954</v>
       </c>
       <c r="E20">
-        <v>12.61330795009864</v>
+        <v>12.05571910684446</v>
       </c>
       <c r="F20">
-        <v>17.36360700952055</v>
+        <v>17.08690313175026</v>
       </c>
       <c r="G20">
-        <v>20.84551510095519</v>
+        <v>20.29285947105146</v>
       </c>
       <c r="H20">
-        <v>2.352314060537096</v>
+        <v>2.209690970632761</v>
       </c>
       <c r="I20">
-        <v>3.704244981222519</v>
+        <v>3.488763447517575</v>
       </c>
       <c r="J20">
-        <v>7.96873248080854</v>
+        <v>8.383160794939638</v>
       </c>
       <c r="K20">
-        <v>15.87238650296253</v>
+        <v>15.05359808970509</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.66410798970199</v>
       </c>
       <c r="M20">
-        <v>15.48116738026981</v>
+        <v>10.50408185582205</v>
       </c>
       <c r="N20">
-        <v>6.709584823176622</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.5408923140982</v>
+        <v>15.50856376814795</v>
       </c>
       <c r="P20">
-        <v>12.6837728045529</v>
+        <v>6.999851083756647</v>
       </c>
       <c r="Q20">
-        <v>13.04165236507083</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.385623942317</v>
+      </c>
+      <c r="R20">
+        <v>12.5610950346147</v>
+      </c>
+      <c r="S20">
+        <v>12.8338300956598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.7925082782471</v>
+        <v>13.04192242124403</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.895758790100609</v>
+        <v>6.024092757115348</v>
       </c>
       <c r="E21">
-        <v>12.76219799770303</v>
+        <v>12.18949868914235</v>
       </c>
       <c r="F21">
-        <v>17.99309564064814</v>
+        <v>17.40662419196641</v>
       </c>
       <c r="G21">
-        <v>21.69850298089249</v>
+        <v>23.0374202728709</v>
       </c>
       <c r="H21">
-        <v>2.155131893727777</v>
+        <v>2.029336621859346</v>
       </c>
       <c r="I21">
-        <v>3.577496348277698</v>
+        <v>3.383044407325562</v>
       </c>
       <c r="J21">
-        <v>8.005122430169504</v>
+        <v>7.682738444967457</v>
       </c>
       <c r="K21">
-        <v>15.78233779263316</v>
+        <v>14.88583422671825</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.49726823047716</v>
       </c>
       <c r="M21">
-        <v>16.16362868042825</v>
+        <v>10.46601238317402</v>
       </c>
       <c r="N21">
-        <v>7.061721998907752</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.01238446476375</v>
+        <v>16.12416831841914</v>
       </c>
       <c r="P21">
-        <v>12.54042320070067</v>
+        <v>7.335936762875832</v>
       </c>
       <c r="Q21">
-        <v>13.27451298834314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>10.83300540545626</v>
+      </c>
+      <c r="R21">
+        <v>12.4459390149925</v>
+      </c>
+      <c r="S21">
+        <v>12.82820165386288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.24280126214171</v>
+        <v>13.46836952444652</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.055594645399763</v>
+        <v>6.22948058155276</v>
       </c>
       <c r="E22">
-        <v>12.84695147972202</v>
+        <v>12.27208514198346</v>
       </c>
       <c r="F22">
-        <v>18.38577069239683</v>
+        <v>17.58619879736852</v>
       </c>
       <c r="G22">
-        <v>22.2220750691893</v>
+        <v>24.88496987758215</v>
       </c>
       <c r="H22">
-        <v>2.041474525926586</v>
+        <v>1.926498361575487</v>
       </c>
       <c r="I22">
-        <v>3.489203178613268</v>
+        <v>3.305894234662331</v>
       </c>
       <c r="J22">
-        <v>8.026898141601627</v>
+        <v>7.255377720255474</v>
       </c>
       <c r="K22">
-        <v>15.71603440776496</v>
+        <v>14.76791680141386</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.38682752494663</v>
       </c>
       <c r="M22">
-        <v>16.59860181380176</v>
+        <v>10.44241649997632</v>
       </c>
       <c r="N22">
-        <v>7.225618009662335</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.27257315693746</v>
+        <v>16.50963652661831</v>
       </c>
       <c r="P22">
-        <v>12.44934457095444</v>
+        <v>7.487477207694636</v>
       </c>
       <c r="Q22">
-        <v>13.41847070001082</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.07811463965641</v>
+      </c>
+      <c r="R22">
+        <v>12.3756347516182</v>
+      </c>
+      <c r="S22">
+        <v>12.80419590234675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.03287055647694</v>
+        <v>13.26792607068691</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.968256000853793</v>
+        <v>6.111724639990246</v>
       </c>
       <c r="E23">
-        <v>12.80742781144049</v>
+        <v>12.23181772234912</v>
       </c>
       <c r="F23">
-        <v>18.18938866507939</v>
+        <v>17.53275457442266</v>
       </c>
       <c r="G23">
-        <v>21.96623381225952</v>
+        <v>23.71184810501328</v>
       </c>
       <c r="H23">
-        <v>2.100954315912105</v>
+        <v>1.979790724339374</v>
       </c>
       <c r="I23">
-        <v>3.525834565546365</v>
+        <v>3.334252173742795</v>
       </c>
       <c r="J23">
-        <v>8.019173933316543</v>
+        <v>7.546258373380675</v>
       </c>
       <c r="K23">
-        <v>15.7680163737863</v>
+        <v>14.84994096602444</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.45772836293867</v>
       </c>
       <c r="M23">
-        <v>16.35754792421701</v>
+        <v>10.47101994498665</v>
       </c>
       <c r="N23">
-        <v>7.130399394818006</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.14063304467262</v>
+        <v>16.30640932572769</v>
       </c>
       <c r="P23">
-        <v>12.49682454398931</v>
+        <v>7.402380281232854</v>
       </c>
       <c r="Q23">
-        <v>13.35153790023858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>10.95494858433363</v>
+      </c>
+      <c r="R23">
+        <v>12.40983611102875</v>
+      </c>
+      <c r="S23">
+        <v>12.8496681793565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.15403679026761</v>
+        <v>12.43923346314979</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.629569359134577</v>
+        <v>5.690691624569647</v>
       </c>
       <c r="E24">
-        <v>12.64633828825604</v>
+        <v>12.07702217095993</v>
       </c>
       <c r="F24">
-        <v>17.4254806929121</v>
+        <v>17.14583466897714</v>
       </c>
       <c r="G24">
-        <v>20.96136040406348</v>
+        <v>20.38421146863438</v>
       </c>
       <c r="H24">
-        <v>2.333149250365377</v>
+        <v>2.190361147641475</v>
       </c>
       <c r="I24">
-        <v>3.685875900487937</v>
+        <v>3.467486612565761</v>
       </c>
       <c r="J24">
-        <v>7.990210051786753</v>
+        <v>8.408055692201732</v>
       </c>
       <c r="K24">
-        <v>15.94222914175488</v>
+        <v>15.11195537294299</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.70884589113556</v>
       </c>
       <c r="M24">
-        <v>15.42926576436363</v>
+        <v>10.54825996811612</v>
       </c>
       <c r="N24">
-        <v>6.773766574958226</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.61553062561581</v>
+        <v>15.46078561944285</v>
       </c>
       <c r="P24">
-        <v>12.68150847612041</v>
+        <v>7.066851350409569</v>
       </c>
       <c r="Q24">
-        <v>13.09363195028573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.45808732783101</v>
+      </c>
+      <c r="R24">
+        <v>12.5565729596599</v>
+      </c>
+      <c r="S24">
+        <v>12.88316452511109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.12657247957173</v>
+        <v>11.4908428728718</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.238981753054841</v>
+        <v>5.279431115799487</v>
       </c>
       <c r="E25">
-        <v>12.46694813720969</v>
+        <v>11.90663333810348</v>
       </c>
       <c r="F25">
-        <v>16.60771272604471</v>
+        <v>16.40555911345696</v>
       </c>
       <c r="G25">
-        <v>19.88669489799021</v>
+        <v>19.12920532616219</v>
       </c>
       <c r="H25">
-        <v>2.595562207599399</v>
+        <v>2.434914922392045</v>
       </c>
       <c r="I25">
-        <v>3.869045954623531</v>
+        <v>3.625511404250362</v>
       </c>
       <c r="J25">
-        <v>7.973599960830698</v>
+        <v>8.459451349593131</v>
       </c>
       <c r="K25">
-        <v>16.14059416494947</v>
+        <v>15.3463533581229</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.96347125248245</v>
       </c>
       <c r="M25">
-        <v>14.36118195904698</v>
+        <v>10.6269015267035</v>
       </c>
       <c r="N25">
-        <v>6.370894890802882</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.01834876839125</v>
+        <v>14.3532968991685</v>
       </c>
       <c r="P25">
-        <v>12.88738081572063</v>
+        <v>6.653998054467386</v>
       </c>
       <c r="Q25">
-        <v>12.84208111203341</v>
+        <v>9.880148416047186</v>
+      </c>
+      <c r="R25">
+        <v>12.73776298923074</v>
+      </c>
+      <c r="S25">
+        <v>12.6893248871119</v>
       </c>
     </row>
   </sheetData>
